--- a/experiments/500ebddgraph.xlsx
+++ b/experiments/500ebddgraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jjavillo\gems\Geometric-LWE-Estimator\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1988581F-2E19-4F5B-A637-912B372AC24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CD67115F-3D05-4D80-B0E9-49B90FDBCCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000"/>
   </bookViews>
@@ -3619,7 +3619,7 @@
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3633,8 +3633,7 @@
     <col min="8" max="8" width="13.3046875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="20.765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">

--- a/experiments/500ebddgraph.xlsx
+++ b/experiments/500ebddgraph.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jjavillo\gems\Geometric-LWE-Estimator\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CD67115F-3D05-4D80-B0E9-49B90FDBCCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4EB197-B461-410C-8634-2E22406B6CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500ebdd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -86,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -3615,11 +3628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3750,7 +3763,7 @@
         <v>130.20000000000002</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF($E$2:$E$501, F3)/500</f>
+        <f t="shared" ref="H2:H33" si="2">COUNTIF($E$2:$E$501, F3)/500</f>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I3">
@@ -3782,7 +3795,7 @@
         <v>155.4</v>
       </c>
       <c r="H4" s="2">
-        <f>COUNTIF($E$2:$E$501, F4)/500</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="I4">
@@ -3815,7 +3828,7 @@
         <v>148.4</v>
       </c>
       <c r="H5" s="2">
-        <f>COUNTIF($E$2:$E$501, F5)/500</f>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
       <c r="I5">
@@ -3847,7 +3860,7 @@
         <v>126</v>
       </c>
       <c r="H6" s="2">
-        <f>COUNTIF($E$2:$E$501, F6)/500</f>
+        <f t="shared" si="2"/>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="I6">
@@ -3879,7 +3892,7 @@
         <v>207.2</v>
       </c>
       <c r="H7" s="2">
-        <f>COUNTIF($E$2:$E$501, F7)/500</f>
+        <f t="shared" si="2"/>
         <v>2E-3</v>
       </c>
       <c r="I7">
@@ -3911,7 +3924,7 @@
         <v>156.80000000000001</v>
       </c>
       <c r="H8" s="2">
-        <f>COUNTIF($E$2:$E$501, F8)/500</f>
+        <f t="shared" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I8">
@@ -3943,7 +3956,7 @@
         <v>182</v>
       </c>
       <c r="H9" s="2">
-        <f>COUNTIF($E$2:$E$501, F9)/500</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I9">
@@ -3975,7 +3988,7 @@
         <v>175</v>
       </c>
       <c r="H10" s="2">
-        <f>COUNTIF($E$2:$E$501, F10)/500</f>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I10">
@@ -4007,7 +4020,7 @@
         <v>133</v>
       </c>
       <c r="H11" s="2">
-        <f>COUNTIF($E$2:$E$501, F11)/500</f>
+        <f t="shared" si="2"/>
         <v>2.4E-2</v>
       </c>
       <c r="I11">
@@ -4039,7 +4052,7 @@
         <v>144.20000000000002</v>
       </c>
       <c r="H12" s="2">
-        <f>COUNTIF($E$2:$E$501, F12)/500</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I12">
@@ -4071,7 +4084,7 @@
         <v>123.2</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF($E$2:$E$501, F13)/500</f>
+        <f t="shared" si="2"/>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I13">
@@ -4103,7 +4116,7 @@
         <v>189</v>
       </c>
       <c r="H14" s="2">
-        <f>COUNTIF($E$2:$E$501, F14)/500</f>
+        <f t="shared" si="2"/>
         <v>2E-3</v>
       </c>
       <c r="I14">
@@ -4135,7 +4148,7 @@
         <v>127.4</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF($E$2:$E$501, F15)/500</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I15">
@@ -4167,7 +4180,7 @@
         <v>173.6</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF($E$2:$E$501, F16)/500</f>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I16">
@@ -4199,7 +4212,7 @@
         <v>137.19999999999999</v>
       </c>
       <c r="H17" s="2">
-        <f>COUNTIF($E$2:$E$501, F17)/500</f>
+        <f t="shared" si="2"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I17">
@@ -4231,7 +4244,7 @@
         <v>170.79999999999998</v>
       </c>
       <c r="H18" s="2">
-        <f>COUNTIF($E$2:$E$501, F18)/500</f>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
       <c r="I18">
@@ -4263,7 +4276,7 @@
         <v>121.8</v>
       </c>
       <c r="H19" s="2">
-        <f>COUNTIF($E$2:$E$501, F19)/500</f>
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="I19">
@@ -4295,7 +4308,7 @@
         <v>154</v>
       </c>
       <c r="H20" s="2">
-        <f>COUNTIF($E$2:$E$501, F20)/500</f>
+        <f t="shared" si="2"/>
         <v>1.6E-2</v>
       </c>
       <c r="I20">
@@ -4327,7 +4340,7 @@
         <v>151.20000000000002</v>
       </c>
       <c r="H21" s="2">
-        <f>COUNTIF($E$2:$E$501, F21)/500</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="I21">
@@ -4359,7 +4372,7 @@
         <v>103.6</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF($E$2:$E$501, F22)/500</f>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I22">
@@ -4391,7 +4404,7 @@
         <v>99.399999999999991</v>
       </c>
       <c r="H23" s="2">
-        <f>COUNTIF($E$2:$E$501, F23)/500</f>
+        <f t="shared" si="2"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I23">
@@ -4423,7 +4436,7 @@
         <v>169.4</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF($E$2:$E$501, F24)/500</f>
+        <f t="shared" si="2"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I24">
@@ -4455,7 +4468,7 @@
         <v>162.39999999999998</v>
       </c>
       <c r="H25" s="2">
-        <f>COUNTIF($E$2:$E$501, F25)/500</f>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
       <c r="I25">
@@ -4487,7 +4500,7 @@
         <v>120.39999999999999</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF($E$2:$E$501, F26)/500</f>
+        <f t="shared" si="2"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I26">
@@ -4519,7 +4532,7 @@
         <v>96.6</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF($E$2:$E$501, F27)/500</f>
+        <f t="shared" si="2"/>
         <v>2E-3</v>
       </c>
       <c r="I27">
@@ -4551,7 +4564,7 @@
         <v>113.4</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF($E$2:$E$501, F28)/500</f>
+        <f t="shared" si="2"/>
         <v>1.4E-2</v>
       </c>
       <c r="I28">
@@ -4583,7 +4596,7 @@
         <v>142.80000000000001</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF($E$2:$E$501, F29)/500</f>
+        <f t="shared" si="2"/>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I29">
@@ -4615,7 +4628,7 @@
         <v>109.2</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF($E$2:$E$501, F30)/500</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="I30">
@@ -4647,7 +4660,7 @@
         <v>149.80000000000001</v>
       </c>
       <c r="H31" s="2">
-        <f>COUNTIF($E$2:$E$501, F31)/500</f>
+        <f t="shared" si="2"/>
         <v>1.4E-2</v>
       </c>
       <c r="I31">
@@ -4679,7 +4692,7 @@
         <v>179.20000000000002</v>
       </c>
       <c r="H32" s="2">
-        <f>COUNTIF($E$2:$E$501, F32)/500</f>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I32">
@@ -4711,7 +4724,7 @@
         <v>180.6</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF($E$2:$E$501, F33)/500</f>
+        <f t="shared" si="2"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I33">
@@ -4743,7 +4756,7 @@
         <v>172.2</v>
       </c>
       <c r="H34" s="2">
-        <f>COUNTIF($E$2:$E$501, F34)/500</f>
+        <f t="shared" ref="H34:H65" si="3">COUNTIF($E$2:$E$501, F34)/500</f>
         <v>0.01</v>
       </c>
       <c r="I34">
@@ -4775,7 +4788,7 @@
         <v>177.8</v>
       </c>
       <c r="H35" s="2">
-        <f>COUNTIF($E$2:$E$501, F35)/500</f>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I35">
@@ -4807,7 +4820,7 @@
         <v>165.2</v>
       </c>
       <c r="H36" s="2">
-        <f>COUNTIF($E$2:$E$501, F36)/500</f>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I36">
@@ -4839,7 +4852,7 @@
         <v>147</v>
       </c>
       <c r="H37" s="2">
-        <f>COUNTIF($E$2:$E$501, F37)/500</f>
+        <f t="shared" si="3"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I37">
@@ -4871,7 +4884,7 @@
         <v>166.6</v>
       </c>
       <c r="H38" s="2">
-        <f>COUNTIF($E$2:$E$501, F38)/500</f>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
       <c r="I38">
@@ -4903,7 +4916,7 @@
         <v>138.6</v>
       </c>
       <c r="H39" s="2">
-        <f>COUNTIF($E$2:$E$501, F39)/500</f>
+        <f t="shared" si="3"/>
         <v>1.4E-2</v>
       </c>
       <c r="I39">
@@ -4935,7 +4948,7 @@
         <v>88.2</v>
       </c>
       <c r="H40" s="2">
-        <f>COUNTIF($E$2:$E$501, F40)/500</f>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I40">
@@ -4967,7 +4980,7 @@
         <v>168</v>
       </c>
       <c r="H41" s="2">
-        <f>COUNTIF($E$2:$E$501, F41)/500</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="I41">
@@ -4999,7 +5012,7 @@
         <v>102.2</v>
       </c>
       <c r="H42" s="2">
-        <f>COUNTIF($E$2:$E$501, F42)/500</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="I42">
@@ -5031,7 +5044,7 @@
         <v>105</v>
       </c>
       <c r="H43" s="2">
-        <f>COUNTIF($E$2:$E$501, F43)/500</f>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="I43">
@@ -5063,7 +5076,7 @@
         <v>124.60000000000001</v>
       </c>
       <c r="H44" s="2">
-        <f>COUNTIF($E$2:$E$501, F44)/500</f>
+        <f t="shared" si="3"/>
         <v>1.4E-2</v>
       </c>
       <c r="I44">
@@ -5095,7 +5108,7 @@
         <v>141.4</v>
       </c>
       <c r="H45" s="2">
-        <f>COUNTIF($E$2:$E$501, F45)/500</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
       <c r="I45">
@@ -5127,7 +5140,7 @@
         <v>98</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF($E$2:$E$501, F46)/500</f>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I46">
@@ -5159,7 +5172,7 @@
         <v>184.8</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF($E$2:$E$501, F47)/500</f>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I47">
@@ -5191,7 +5204,7 @@
         <v>131.6</v>
       </c>
       <c r="H48" s="2">
-        <f>COUNTIF($E$2:$E$501, F48)/500</f>
+        <f t="shared" si="3"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I48">
@@ -5223,7 +5236,7 @@
         <v>201.6</v>
       </c>
       <c r="H49" s="2">
-        <f>COUNTIF($E$2:$E$501, F49)/500</f>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I49">
@@ -5255,7 +5268,7 @@
         <v>135.79999999999998</v>
       </c>
       <c r="H50" s="2">
-        <f>COUNTIF($E$2:$E$501, F50)/500</f>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
       <c r="I50">
@@ -5287,7 +5300,7 @@
         <v>145.6</v>
       </c>
       <c r="H51" s="2">
-        <f>COUNTIF($E$2:$E$501, F51)/500</f>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="I51">
@@ -5319,7 +5332,7 @@
         <v>110.60000000000001</v>
       </c>
       <c r="H52" s="2">
-        <f>COUNTIF($E$2:$E$501, F52)/500</f>
+        <f t="shared" si="3"/>
         <v>1.4E-2</v>
       </c>
       <c r="I52">
@@ -5351,7 +5364,7 @@
         <v>140</v>
       </c>
       <c r="H53" s="2">
-        <f>COUNTIF($E$2:$E$501, F53)/500</f>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="I53">
@@ -5383,7 +5396,7 @@
         <v>117.6</v>
       </c>
       <c r="H54" s="2">
-        <f>COUNTIF($E$2:$E$501, F54)/500</f>
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I54">
@@ -5415,7 +5428,7 @@
         <v>114.8</v>
       </c>
       <c r="H55" s="2">
-        <f>COUNTIF($E$2:$E$501, F55)/500</f>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
       <c r="I55">
@@ -5447,7 +5460,7 @@
         <v>163.79999999999998</v>
       </c>
       <c r="H56" s="2">
-        <f>COUNTIF($E$2:$E$501, F56)/500</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="I56">
@@ -5479,7 +5492,7 @@
         <v>161</v>
       </c>
       <c r="H57" s="2">
-        <f>COUNTIF($E$2:$E$501, F57)/500</f>
+        <f t="shared" si="3"/>
         <v>1.6E-2</v>
       </c>
       <c r="I57">
@@ -5511,7 +5524,7 @@
         <v>106.4</v>
       </c>
       <c r="H58" s="2">
-        <f>COUNTIF($E$2:$E$501, F58)/500</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="I58">
@@ -5543,7 +5556,7 @@
         <v>191.8</v>
       </c>
       <c r="H59" s="2">
-        <f>COUNTIF($E$2:$E$501, F59)/500</f>
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I59">
@@ -5575,7 +5588,7 @@
         <v>119</v>
       </c>
       <c r="H60" s="2">
-        <f>COUNTIF($E$2:$E$501, F60)/500</f>
+        <f t="shared" si="3"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I60">
@@ -5607,7 +5620,7 @@
         <v>217</v>
       </c>
       <c r="H61" s="2">
-        <f>COUNTIF($E$2:$E$501, F61)/500</f>
+        <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
       <c r="I61">
@@ -5639,7 +5652,7 @@
         <v>134.4</v>
       </c>
       <c r="H62" s="2">
-        <f>COUNTIF($E$2:$E$501, F62)/500</f>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="I62">
@@ -5671,7 +5684,7 @@
         <v>176.4</v>
       </c>
       <c r="H63" s="2">
-        <f>COUNTIF($E$2:$E$501, F63)/500</f>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I63">
@@ -5703,7 +5716,7 @@
         <v>128.80000000000001</v>
       </c>
       <c r="H64" s="2">
-        <f>COUNTIF($E$2:$E$501, F64)/500</f>
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I64">
@@ -5735,7 +5748,7 @@
         <v>107.8</v>
       </c>
       <c r="H65" s="2">
-        <f>COUNTIF($E$2:$E$501, F65)/500</f>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="I65">
@@ -5767,7 +5780,7 @@
         <v>85.399999999999991</v>
       </c>
       <c r="H66" s="2">
-        <f>COUNTIF($E$2:$E$501, F66)/500</f>
+        <f t="shared" ref="H66:H87" si="4">COUNTIF($E$2:$E$501, F66)/500</f>
         <v>2E-3</v>
       </c>
       <c r="I66">
@@ -5788,18 +5801,18 @@
         <v>1.0147510900000001</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E130" si="2">TRUNC(D67,2)</f>
+        <f t="shared" ref="E67:E130" si="5">TRUNC(D67,2)</f>
         <v>1.01</v>
       </c>
       <c r="F67">
         <v>1.1399999999999999</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="3">F67*140</f>
+        <f t="shared" ref="G67:G130" si="6">F67*140</f>
         <v>159.6</v>
       </c>
       <c r="H67" s="2">
-        <f>COUNTIF($E$2:$E$501, F67)/500</f>
+        <f t="shared" si="4"/>
         <v>1.2E-2</v>
       </c>
       <c r="I67">
@@ -5820,18 +5833,18 @@
         <v>0.87399800299999997</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.87</v>
       </c>
       <c r="F68">
         <v>0.64</v>
       </c>
       <c r="G68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>89.600000000000009</v>
       </c>
       <c r="H68" s="2">
-        <f>COUNTIF($E$2:$E$501, F68)/500</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="I68">
@@ -5852,18 +5865,18 @@
         <v>0.63152940400000002</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.63</v>
       </c>
       <c r="F69">
         <v>0.66</v>
       </c>
       <c r="G69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>92.4</v>
       </c>
       <c r="H69" s="2">
-        <f>COUNTIF($E$2:$E$501, F69)/500</f>
+        <f t="shared" si="4"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I69">
@@ -5884,18 +5897,18 @@
         <v>0.70460226199999998</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
       <c r="F70">
         <v>0.65</v>
       </c>
       <c r="G70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="H70" s="2">
-        <f>COUNTIF($E$2:$E$501, F70)/500</f>
+        <f t="shared" si="4"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I70">
@@ -5916,18 +5929,18 @@
         <v>1.3282592040000001</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.32</v>
       </c>
       <c r="F71">
         <v>1.52</v>
       </c>
       <c r="G71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>212.8</v>
       </c>
       <c r="H71" s="2">
-        <f>COUNTIF($E$2:$E$501, F71)/500</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="I71">
@@ -5948,18 +5961,18 @@
         <v>1.195209067</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.19</v>
       </c>
       <c r="F72">
         <v>0.83</v>
       </c>
       <c r="G72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>116.19999999999999</v>
       </c>
       <c r="H72" s="2">
-        <f>COUNTIF($E$2:$E$501, F72)/500</f>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="I72">
@@ -5980,18 +5993,18 @@
         <v>0.90729729699999995</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="F73">
         <v>0.62</v>
       </c>
       <c r="G73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>86.8</v>
       </c>
       <c r="H73" s="2">
-        <f>COUNTIF($E$2:$E$501, F73)/500</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="I73">
@@ -6012,18 +6025,18 @@
         <v>1.096223569</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="F74">
         <v>0.72</v>
       </c>
       <c r="G74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100.8</v>
       </c>
       <c r="H74" s="2">
-        <f>COUNTIF($E$2:$E$501, F74)/500</f>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I74">
@@ -6044,18 +6057,18 @@
         <v>1.0541138999999999</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
       <c r="F75">
         <v>1.36</v>
       </c>
       <c r="G75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>190.4</v>
       </c>
       <c r="H75" s="2">
-        <f>COUNTIF($E$2:$E$501, F75)/500</f>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I75">
@@ -6076,18 +6089,18 @@
         <v>0.94425839099999997</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.94</v>
       </c>
       <c r="F76">
         <v>1.1299999999999999</v>
       </c>
       <c r="G76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>158.19999999999999</v>
       </c>
       <c r="H76" s="2">
-        <f>COUNTIF($E$2:$E$501, F76)/500</f>
+        <f t="shared" si="4"/>
         <v>1.2E-2</v>
       </c>
       <c r="I76">
@@ -6108,18 +6121,18 @@
         <v>1.4456680669999999</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.44</v>
       </c>
       <c r="F77">
         <v>1.33</v>
       </c>
       <c r="G77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>186.20000000000002</v>
       </c>
       <c r="H77" s="2">
-        <f>COUNTIF($E$2:$E$501, F77)/500</f>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I77">
@@ -6140,18 +6153,18 @@
         <v>0.999617321</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
       <c r="F78">
         <v>1.38</v>
       </c>
       <c r="G78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>193.2</v>
       </c>
       <c r="H78" s="2">
-        <f>COUNTIF($E$2:$E$501, F78)/500</f>
+        <f t="shared" si="4"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I78">
@@ -6172,18 +6185,18 @@
         <v>0.71310374200000004</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.71</v>
       </c>
       <c r="F79">
         <v>1.34</v>
       </c>
       <c r="G79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>187.60000000000002</v>
       </c>
       <c r="H79" s="2">
-        <f>COUNTIF($E$2:$E$501, F79)/500</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="I79">
@@ -6204,18 +6217,18 @@
         <v>0.97005615499999998</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.97</v>
       </c>
       <c r="F80">
         <v>1.42</v>
       </c>
       <c r="G80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>198.79999999999998</v>
       </c>
       <c r="H80" s="2">
-        <f>COUNTIF($E$2:$E$501, F80)/500</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="I80">
@@ -6236,18 +6249,18 @@
         <v>1.0142121850000001</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.01</v>
       </c>
       <c r="F81">
         <v>0.67</v>
       </c>
       <c r="G81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>93.800000000000011</v>
       </c>
       <c r="H81" s="2">
-        <f>COUNTIF($E$2:$E$501, F81)/500</f>
+        <f t="shared" si="4"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I81">
@@ -6268,18 +6281,18 @@
         <v>1.0495547759999999</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.04</v>
       </c>
       <c r="F82">
         <v>0.8</v>
       </c>
       <c r="G82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="H82" s="2">
-        <f>COUNTIF($E$2:$E$501, F82)/500</f>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="I82">
@@ -6300,18 +6313,18 @@
         <v>1.302486714</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="F83">
         <v>0.54</v>
       </c>
       <c r="G83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75.600000000000009</v>
       </c>
       <c r="H83" s="2">
-        <f>COUNTIF($E$2:$E$501, F83)/500</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="I83">
@@ -6332,18 +6345,18 @@
         <v>0.90921397299999995</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="F84">
         <v>0.68</v>
       </c>
       <c r="G84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>95.2</v>
       </c>
       <c r="H84" s="2">
-        <f>COUNTIF($E$2:$E$501, F84)/500</f>
+        <f t="shared" si="4"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I84">
@@ -6364,18 +6377,18 @@
         <v>0.93603619299999996</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.93</v>
       </c>
       <c r="F85">
         <v>1.31</v>
       </c>
       <c r="G85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>183.4</v>
       </c>
       <c r="H85" s="2">
-        <f>COUNTIF($E$2:$E$501, F85)/500</f>
+        <f t="shared" si="4"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I85">
@@ -6396,18 +6409,18 @@
         <v>0.98082353899999997</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
       <c r="F86">
         <v>1.57</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>219.8</v>
       </c>
       <c r="H86" s="2">
-        <f>COUNTIF($E$2:$E$501, F86)/500</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="I86">
@@ -6428,18 +6441,18 @@
         <v>1.1128134789999999</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="F87">
         <v>1.46</v>
       </c>
       <c r="G87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>204.4</v>
       </c>
       <c r="H87" s="2">
-        <f>COUNTIF($E$2:$E$501, F87)/500</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="I87">
@@ -6460,11 +6473,11 @@
         <v>1.2009858980000001</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="G88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I88">
@@ -6485,11 +6498,11 @@
         <v>0.95240323999999998</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I89">
@@ -6510,11 +6523,11 @@
         <v>0.79516873600000004</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.79</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I90">
@@ -6535,11 +6548,11 @@
         <v>1.00730521</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I91">
@@ -6560,11 +6573,11 @@
         <v>1.216940406</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.21</v>
       </c>
       <c r="G92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I92">
@@ -6585,11 +6598,11 @@
         <v>0.88598871000000001</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.88</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I93">
@@ -6610,11 +6623,11 @@
         <v>1.0868278280000001</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
       <c r="G94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I94">
@@ -6635,11 +6648,11 @@
         <v>0.84989328500000005</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.84</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I95">
@@ -6660,11 +6673,11 @@
         <v>1.227022608</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.22</v>
       </c>
       <c r="G96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I96">
@@ -6685,11 +6698,11 @@
         <v>0.78512355099999998</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.78</v>
       </c>
       <c r="G97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I97">
@@ -6710,11 +6723,11 @@
         <v>0.98282599000000004</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I98">
@@ -6735,11 +6748,11 @@
         <v>0.74468752699999996</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.74</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I99">
@@ -6760,11 +6773,11 @@
         <v>0.97521877099999998</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.97</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I100">
@@ -6785,11 +6798,11 @@
         <v>0.82328601400000001</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.82</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I101">
@@ -6810,11 +6823,11 @@
         <v>0.86754390299999995</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.86</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I102">
@@ -6835,11 +6848,11 @@
         <v>1.1761464720000001</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.17</v>
       </c>
       <c r="G103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I103">
@@ -6860,11 +6873,11 @@
         <v>1.15060527</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I104">
@@ -6885,11 +6898,11 @@
         <v>1.0418906290000001</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.04</v>
       </c>
       <c r="G105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I105">
@@ -6910,11 +6923,11 @@
         <v>0.98058382799999999</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
       <c r="G106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I106">
@@ -6935,11 +6948,11 @@
         <v>0.76818645399999996</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I107">
@@ -6960,11 +6973,11 @@
         <v>0.98785254</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
       <c r="G108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I108">
@@ -6985,11 +6998,11 @@
         <v>1.0192959180000001</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.01</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I109">
@@ -7010,11 +7023,11 @@
         <v>1.100740826</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I110">
@@ -7035,11 +7048,11 @@
         <v>1.012891599</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.01</v>
       </c>
       <c r="G111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I111">
@@ -7060,11 +7073,11 @@
         <v>1.375712743</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.37</v>
       </c>
       <c r="G112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I112">
@@ -7085,11 +7098,11 @@
         <v>1.196693547</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.19</v>
       </c>
       <c r="G113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I113">
@@ -7110,11 +7123,11 @@
         <v>1.1666049629999999</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="G114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I114">
@@ -7135,11 +7148,11 @@
         <v>0.75977611</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="G115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I115">
@@ -7160,11 +7173,11 @@
         <v>1.1729855419999999</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.17</v>
       </c>
       <c r="G116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I116">
@@ -7185,11 +7198,11 @@
         <v>0.81814152399999995</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.81</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I117">
@@ -7210,11 +7223,11 @@
         <v>0.76448610699999997</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76</v>
       </c>
       <c r="G118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I118">
@@ -7235,11 +7248,11 @@
         <v>0.75951291200000004</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="G119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I119">
@@ -7260,11 +7273,11 @@
         <v>0.94194143100000005</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.94</v>
       </c>
       <c r="G120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I120">
@@ -7285,11 +7298,11 @@
         <v>1.0758840409999999</v>
       </c>
       <c r="E121" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.07</v>
       </c>
       <c r="G121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I121">
@@ -7310,11 +7323,11 @@
         <v>1.2906037370000001</v>
       </c>
       <c r="E122" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.29</v>
       </c>
       <c r="G122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I122">
@@ -7335,11 +7348,11 @@
         <v>1.0894342809999999</v>
       </c>
       <c r="E123" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
       <c r="G123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I123">
@@ -7360,11 +7373,11 @@
         <v>1.2735088729999999</v>
       </c>
       <c r="E124" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.27</v>
       </c>
       <c r="G124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I124">
@@ -7385,11 +7398,11 @@
         <v>0.85528514700000002</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="G125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I125">
@@ -7410,11 +7423,11 @@
         <v>1.5569853339999999</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.55</v>
       </c>
       <c r="G126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I126">
@@ -7435,11 +7448,11 @@
         <v>1.087581428</v>
       </c>
       <c r="E127" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
       <c r="G127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I127">
@@ -7460,11 +7473,11 @@
         <v>0.82951597399999999</v>
       </c>
       <c r="E128" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.82</v>
       </c>
       <c r="G128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I128">
@@ -7485,11 +7498,11 @@
         <v>0.98163151500000001</v>
       </c>
       <c r="E129" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
       <c r="G129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I129">
@@ -7510,11 +7523,11 @@
         <v>1.2342165220000001</v>
       </c>
       <c r="E130" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.23</v>
       </c>
       <c r="G130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I130">
@@ -7535,11 +7548,11 @@
         <v>1.0804909039999999</v>
       </c>
       <c r="E131" s="1">
-        <f t="shared" ref="E131:E194" si="4">TRUNC(D131,2)</f>
+        <f t="shared" ref="E131:E194" si="7">TRUNC(D131,2)</f>
         <v>1.08</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G194" si="5">F131*140</f>
+        <f t="shared" ref="G131:G194" si="8">F131*140</f>
         <v>0</v>
       </c>
       <c r="I131">
@@ -7560,11 +7573,11 @@
         <v>0.88222249900000005</v>
       </c>
       <c r="E132" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.88</v>
       </c>
       <c r="G132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I132">
@@ -7585,11 +7598,11 @@
         <v>0.961980744</v>
       </c>
       <c r="E133" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
       <c r="G133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I133">
@@ -7610,11 +7623,11 @@
         <v>1.2612327590000001</v>
       </c>
       <c r="E134" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.26</v>
       </c>
       <c r="G134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I134">
@@ -7635,11 +7648,11 @@
         <v>0.92790717099999998</v>
       </c>
       <c r="E135" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.92</v>
       </c>
       <c r="G135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I135">
@@ -7660,11 +7673,11 @@
         <v>0.85198329900000003</v>
       </c>
       <c r="E136" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.85</v>
       </c>
       <c r="G136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I136">
@@ -7685,11 +7698,11 @@
         <v>0.98535509300000002</v>
       </c>
       <c r="E137" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.98</v>
       </c>
       <c r="G137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I137">
@@ -7710,11 +7723,11 @@
         <v>1.094383224</v>
       </c>
       <c r="E138" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="G138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I138">
@@ -7735,11 +7748,11 @@
         <v>1.0185275110000001</v>
       </c>
       <c r="E139" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.01</v>
       </c>
       <c r="G139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I139">
@@ -7760,11 +7773,11 @@
         <v>0.86069564399999998</v>
       </c>
       <c r="E140" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.86</v>
       </c>
       <c r="G140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I140">
@@ -7785,11 +7798,11 @@
         <v>0.81772183600000004</v>
       </c>
       <c r="E141" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.81</v>
       </c>
       <c r="G141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I141">
@@ -7810,11 +7823,11 @@
         <v>0.78805370600000002</v>
       </c>
       <c r="E142" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.78</v>
       </c>
       <c r="G142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I142">
@@ -7835,11 +7848,11 @@
         <v>0.88755130599999998</v>
       </c>
       <c r="E143" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.88</v>
       </c>
       <c r="G143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I143">
@@ -7860,11 +7873,11 @@
         <v>1.2365248040000001</v>
       </c>
       <c r="E144" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.23</v>
       </c>
       <c r="G144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I144">
@@ -7885,11 +7898,11 @@
         <v>0.86178851599999995</v>
       </c>
       <c r="E145" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.86</v>
       </c>
       <c r="G145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I145">
@@ -7910,11 +7923,11 @@
         <v>0.85960889699999998</v>
       </c>
       <c r="E146" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.85</v>
       </c>
       <c r="G146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I146">
@@ -7935,11 +7948,11 @@
         <v>1.15917874</v>
       </c>
       <c r="E147" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I147">
@@ -7960,11 +7973,11 @@
         <v>0.942037927</v>
       </c>
       <c r="E148" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.94</v>
       </c>
       <c r="G148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I148">
@@ -7985,11 +7998,11 @@
         <v>0.90323291400000005</v>
       </c>
       <c r="E149" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
       <c r="G149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I149">
@@ -8010,11 +8023,11 @@
         <v>0.918026644</v>
       </c>
       <c r="E150" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.91</v>
       </c>
       <c r="G150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I150">
@@ -8035,11 +8048,11 @@
         <v>0.95430076799999997</v>
       </c>
       <c r="E151" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.95</v>
       </c>
       <c r="G151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I151">
@@ -8060,11 +8073,11 @@
         <v>1.209569836</v>
       </c>
       <c r="E152" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="G152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I152">
@@ -8085,11 +8098,11 @@
         <v>0.840442146</v>
       </c>
       <c r="E153" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.84</v>
       </c>
       <c r="G153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I153">
@@ -8110,11 +8123,11 @@
         <v>1.0927075369999999</v>
       </c>
       <c r="E154" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="G154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I154">
@@ -8135,11 +8148,11 @@
         <v>0.77554017600000003</v>
       </c>
       <c r="E155" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.77</v>
       </c>
       <c r="G155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I155">
@@ -8160,11 +8173,11 @@
         <v>1.1812932620000001</v>
       </c>
       <c r="E156" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.18</v>
       </c>
       <c r="G156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I156">
@@ -8185,11 +8198,11 @@
         <v>1.2640393539999999</v>
       </c>
       <c r="E157" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.26</v>
       </c>
       <c r="G157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I157">
@@ -8210,11 +8223,11 @@
         <v>1.0529107449999999</v>
       </c>
       <c r="E158" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.05</v>
       </c>
       <c r="G158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I158">
@@ -8235,11 +8248,11 @@
         <v>0.84534411799999998</v>
       </c>
       <c r="E159" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.84</v>
       </c>
       <c r="G159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I159">
@@ -8260,11 +8273,11 @@
         <v>0.96497497499999996</v>
       </c>
       <c r="E160" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
       <c r="G160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I160">
@@ -8285,11 +8298,11 @@
         <v>0.61774277099999997</v>
       </c>
       <c r="E161" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.61</v>
       </c>
       <c r="G161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I161">
@@ -8310,11 +8323,11 @@
         <v>0.88199504100000004</v>
       </c>
       <c r="E162" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.88</v>
       </c>
       <c r="G162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I162">
@@ -8335,11 +8348,11 @@
         <v>1.142538284</v>
       </c>
       <c r="E163" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="G163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I163">
@@ -8360,11 +8373,11 @@
         <v>0.64051030900000006</v>
       </c>
       <c r="E164" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.64</v>
       </c>
       <c r="G164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I164">
@@ -8385,11 +8398,11 @@
         <v>1.090660156</v>
       </c>
       <c r="E165" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="G165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I165">
@@ -8410,11 +8423,11 @@
         <v>1.1210119380000001</v>
       </c>
       <c r="E166" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I166">
@@ -8435,11 +8448,11 @@
         <v>0.66271137099999999</v>
       </c>
       <c r="E167" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.66</v>
       </c>
       <c r="G167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I167">
@@ -8460,11 +8473,11 @@
         <v>0.98977585199999996</v>
       </c>
       <c r="E168" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.98</v>
       </c>
       <c r="G168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I168">
@@ -8485,11 +8498,11 @@
         <v>0.759435305</v>
       </c>
       <c r="E169" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="G169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I169">
@@ -8510,11 +8523,11 @@
         <v>0.969615279</v>
       </c>
       <c r="E170" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
       <c r="G170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I170">
@@ -8535,11 +8548,11 @@
         <v>0.77426196700000005</v>
       </c>
       <c r="E171" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.77</v>
       </c>
       <c r="G171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I171">
@@ -8560,11 +8573,11 @@
         <v>0.91863320000000004</v>
       </c>
       <c r="E172" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.91</v>
       </c>
       <c r="G172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I172">
@@ -8585,11 +8598,11 @@
         <v>1.0686763429999999</v>
       </c>
       <c r="E173" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.06</v>
       </c>
       <c r="G173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I173">
@@ -8610,11 +8623,11 @@
         <v>0.98144566799999999</v>
       </c>
       <c r="E174" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.98</v>
       </c>
       <c r="G174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I174">
@@ -8635,11 +8648,11 @@
         <v>0.97066169099999999</v>
       </c>
       <c r="E175" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.97</v>
       </c>
       <c r="G175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I175">
@@ -8660,11 +8673,11 @@
         <v>0.79327325000000004</v>
       </c>
       <c r="E176" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.79</v>
       </c>
       <c r="G176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I176">
@@ -8685,11 +8698,11 @@
         <v>0.89011282999999997</v>
       </c>
       <c r="E177" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.89</v>
       </c>
       <c r="G177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I177">
@@ -8710,11 +8723,11 @@
         <v>1.1596032780000001</v>
       </c>
       <c r="E178" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I178">
@@ -8735,11 +8748,11 @@
         <v>0.65012789299999996</v>
       </c>
       <c r="E179" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.65</v>
       </c>
       <c r="G179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I179">
@@ -8760,11 +8773,11 @@
         <v>0.93111915999999995</v>
       </c>
       <c r="E180" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.93</v>
       </c>
       <c r="G180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I180">
@@ -8785,11 +8798,11 @@
         <v>1.109089647</v>
       </c>
       <c r="E181" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I181">
@@ -8810,11 +8823,11 @@
         <v>1.5209187550000001</v>
       </c>
       <c r="E182" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.52</v>
       </c>
       <c r="G182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I182">
@@ -8835,11 +8848,11 @@
         <v>0.82322985199999998</v>
       </c>
       <c r="E183" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.82</v>
       </c>
       <c r="G183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I183">
@@ -8860,11 +8873,11 @@
         <v>1.010471758</v>
       </c>
       <c r="E184" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.01</v>
       </c>
       <c r="G184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I184">
@@ -8885,11 +8898,11 @@
         <v>1.0118589730000001</v>
       </c>
       <c r="E185" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.01</v>
       </c>
       <c r="G185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I185">
@@ -8910,11 +8923,11 @@
         <v>1.0025109699999999</v>
       </c>
       <c r="E186" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I186">
@@ -8935,11 +8948,11 @@
         <v>0.84987030799999996</v>
       </c>
       <c r="E187" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.84</v>
       </c>
       <c r="G187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I187">
@@ -8960,11 +8973,11 @@
         <v>0.833481307</v>
       </c>
       <c r="E188" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.83</v>
       </c>
       <c r="G188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I188">
@@ -8985,11 +8998,11 @@
         <v>1.128967367</v>
       </c>
       <c r="E189" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I189">
@@ -9010,11 +9023,11 @@
         <v>0.878009029</v>
       </c>
       <c r="E190" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.87</v>
       </c>
       <c r="G190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I190">
@@ -9035,11 +9048,11 @@
         <v>1.321951128</v>
       </c>
       <c r="E191" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.32</v>
       </c>
       <c r="G191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I191">
@@ -9060,11 +9073,11 @@
         <v>1.0071168109999999</v>
       </c>
       <c r="E192" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I192">
@@ -9085,11 +9098,11 @@
         <v>0.99154599499999996</v>
       </c>
       <c r="E193" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.99</v>
       </c>
       <c r="G193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I193">
@@ -9110,11 +9123,11 @@
         <v>1.121134474</v>
       </c>
       <c r="E194" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I194">
@@ -9135,11 +9148,11 @@
         <v>1.2463014299999999</v>
       </c>
       <c r="E195" s="1">
-        <f t="shared" ref="E195:E258" si="6">TRUNC(D195,2)</f>
+        <f t="shared" ref="E195:E258" si="9">TRUNC(D195,2)</f>
         <v>1.24</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G258" si="7">F195*140</f>
+        <f t="shared" ref="G195:G258" si="10">F195*140</f>
         <v>0</v>
       </c>
       <c r="I195">
@@ -9160,11 +9173,11 @@
         <v>0.96682833899999998</v>
       </c>
       <c r="E196" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.96</v>
       </c>
       <c r="G196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I196">
@@ -9185,11 +9198,11 @@
         <v>0.62568058400000004</v>
       </c>
       <c r="E197" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.62</v>
       </c>
       <c r="G197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I197">
@@ -9210,11 +9223,11 @@
         <v>0.70823955400000005</v>
       </c>
       <c r="E198" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
       <c r="G198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I198">
@@ -9235,11 +9248,11 @@
         <v>0.95527672100000005</v>
       </c>
       <c r="E199" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.95</v>
       </c>
       <c r="G199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I199">
@@ -9260,11 +9273,11 @@
         <v>0.90793601899999998</v>
       </c>
       <c r="E200" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
       <c r="G200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I200">
@@ -9285,11 +9298,11 @@
         <v>0.75331945700000003</v>
       </c>
       <c r="E201" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="G201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I201">
@@ -9310,11 +9323,11 @@
         <v>1.156807148</v>
       </c>
       <c r="E202" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I202">
@@ -9335,11 +9348,11 @@
         <v>0.84077529200000001</v>
       </c>
       <c r="E203" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.84</v>
       </c>
       <c r="G203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I203">
@@ -9360,11 +9373,11 @@
         <v>1.0940661599999999</v>
       </c>
       <c r="E204" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="G204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I204">
@@ -9385,11 +9398,11 @@
         <v>1.014767939</v>
       </c>
       <c r="E205" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.01</v>
       </c>
       <c r="G205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I205">
@@ -9410,11 +9423,11 @@
         <v>0.98613268899999995</v>
       </c>
       <c r="E206" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
       <c r="G206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I206">
@@ -9435,11 +9448,11 @@
         <v>0.90701827199999996</v>
       </c>
       <c r="E207" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
       <c r="G207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I207">
@@ -9460,11 +9473,11 @@
         <v>0.75199197900000003</v>
       </c>
       <c r="E208" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="G208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I208">
@@ -9485,11 +9498,11 @@
         <v>0.84504670999999998</v>
       </c>
       <c r="E209" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.84</v>
       </c>
       <c r="G209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I209">
@@ -9510,11 +9523,11 @@
         <v>1.129729134</v>
       </c>
       <c r="E210" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I210">
@@ -9535,11 +9548,11 @@
         <v>1.1597327079999999</v>
       </c>
       <c r="E211" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I211">
@@ -9560,11 +9573,11 @@
         <v>0.76971535199999996</v>
       </c>
       <c r="E212" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.76</v>
       </c>
       <c r="G212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I212">
@@ -9585,11 +9598,11 @@
         <v>0.75558791400000003</v>
       </c>
       <c r="E213" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="G213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I213">
@@ -9610,11 +9623,11 @@
         <v>0.89294852599999996</v>
       </c>
       <c r="E214" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.89</v>
       </c>
       <c r="G214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I214">
@@ -9635,11 +9648,11 @@
         <v>0.72428239000000005</v>
       </c>
       <c r="E215" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.72</v>
       </c>
       <c r="G215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I215">
@@ -9660,11 +9673,11 @@
         <v>1.3613882260000001</v>
       </c>
       <c r="E216" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.36</v>
       </c>
       <c r="G216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I216">
@@ -9685,11 +9698,11 @@
         <v>0.79467884700000002</v>
       </c>
       <c r="E217" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.79</v>
       </c>
       <c r="G217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I217">
@@ -9710,11 +9723,11 @@
         <v>0.89777799800000002</v>
       </c>
       <c r="E218" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.89</v>
       </c>
       <c r="G218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I218">
@@ -9735,11 +9748,11 @@
         <v>0.92390175799999996</v>
       </c>
       <c r="E219" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.92</v>
       </c>
       <c r="G219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I219">
@@ -9760,11 +9773,11 @@
         <v>0.90463110700000005</v>
       </c>
       <c r="E220" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.9</v>
       </c>
       <c r="G220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I220">
@@ -9785,11 +9798,11 @@
         <v>0.92469850200000003</v>
       </c>
       <c r="E221" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.92</v>
       </c>
       <c r="G221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I221">
@@ -9810,11 +9823,11 @@
         <v>1.0511115</v>
       </c>
       <c r="E222" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.05</v>
       </c>
       <c r="G222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I222">
@@ -9835,11 +9848,11 @@
         <v>1.1446349339999999</v>
       </c>
       <c r="E223" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="G223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I223">
@@ -9860,11 +9873,11 @@
         <v>1.0605187300000001</v>
       </c>
       <c r="E224" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.06</v>
       </c>
       <c r="G224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I224">
@@ -9885,11 +9898,11 @@
         <v>0.91400412799999997</v>
       </c>
       <c r="E225" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.91</v>
       </c>
       <c r="G225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I225">
@@ -9910,11 +9923,11 @@
         <v>0.77449070200000003</v>
       </c>
       <c r="E226" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.77</v>
       </c>
       <c r="G226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I226">
@@ -9935,11 +9948,11 @@
         <v>0.91643596800000005</v>
       </c>
       <c r="E227" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.91</v>
       </c>
       <c r="G227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I227">
@@ -9960,11 +9973,11 @@
         <v>1.4431764920000001</v>
       </c>
       <c r="E228" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.44</v>
       </c>
       <c r="G228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I228">
@@ -9985,11 +9998,11 @@
         <v>1.1350040749999999</v>
       </c>
       <c r="E229" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="G229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I229">
@@ -10010,11 +10023,11 @@
         <v>0.81168487099999997</v>
       </c>
       <c r="E230" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.81</v>
       </c>
       <c r="G230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I230">
@@ -10035,11 +10048,11 @@
         <v>0.86863090300000001</v>
       </c>
       <c r="E231" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.86</v>
       </c>
       <c r="G231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I231">
@@ -10060,11 +10073,11 @@
         <v>0.839009491</v>
       </c>
       <c r="E232" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.83</v>
       </c>
       <c r="G232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I232">
@@ -10085,11 +10098,11 @@
         <v>0.66596037500000005</v>
       </c>
       <c r="E233" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.66</v>
       </c>
       <c r="G233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I233">
@@ -10110,11 +10123,11 @@
         <v>1.3341304890000001</v>
       </c>
       <c r="E234" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.33</v>
       </c>
       <c r="G234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I234">
@@ -10135,11 +10148,11 @@
         <v>0.87470309800000001</v>
       </c>
       <c r="E235" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.87</v>
       </c>
       <c r="G235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I235">
@@ -10160,11 +10173,11 @@
         <v>1.0250827039999999</v>
       </c>
       <c r="E236" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.02</v>
       </c>
       <c r="G236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I236">
@@ -10185,11 +10198,11 @@
         <v>0.78619089499999995</v>
       </c>
       <c r="E237" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.78</v>
       </c>
       <c r="G237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I237">
@@ -10210,11 +10223,11 @@
         <v>1.075569531</v>
       </c>
       <c r="E238" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.07</v>
       </c>
       <c r="G238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I238">
@@ -10235,11 +10248,11 @@
         <v>1.3372268350000001</v>
       </c>
       <c r="E239" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.33</v>
       </c>
       <c r="G239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I239">
@@ -10260,11 +10273,11 @@
         <v>0.98279535600000001</v>
       </c>
       <c r="E240" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
       <c r="G240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I240">
@@ -10285,11 +10298,11 @@
         <v>0.85987694800000003</v>
       </c>
       <c r="E241" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.85</v>
       </c>
       <c r="G241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I241">
@@ -10310,11 +10323,11 @@
         <v>0.87622612300000002</v>
       </c>
       <c r="E242" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.87</v>
       </c>
       <c r="G242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I242">
@@ -10335,11 +10348,11 @@
         <v>1.029737049</v>
       </c>
       <c r="E243" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.02</v>
       </c>
       <c r="G243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I243">
@@ -10360,11 +10373,11 @@
         <v>0.98374910000000004</v>
       </c>
       <c r="E244" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
       <c r="G244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I244">
@@ -10385,11 +10398,11 @@
         <v>1.1335673340000001</v>
       </c>
       <c r="E245" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="G245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I245">
@@ -10410,11 +10423,11 @@
         <v>1.008082806</v>
       </c>
       <c r="E246" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I246">
@@ -10435,11 +10448,11 @@
         <v>1.3642849370000001</v>
       </c>
       <c r="E247" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.36</v>
       </c>
       <c r="G247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I247">
@@ -10460,11 +10473,11 @@
         <v>1.2128395190000001</v>
       </c>
       <c r="E248" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.21</v>
       </c>
       <c r="G248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I248">
@@ -10485,11 +10498,11 @@
         <v>1.388209679</v>
       </c>
       <c r="E249" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.38</v>
       </c>
       <c r="G249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I249">
@@ -10510,11 +10523,11 @@
         <v>0.84191360599999998</v>
       </c>
       <c r="E250" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.84</v>
       </c>
       <c r="G250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I250">
@@ -10535,11 +10548,11 @@
         <v>0.63589451200000002</v>
       </c>
       <c r="E251" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.63</v>
       </c>
       <c r="G251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I251">
@@ -10560,11 +10573,11 @@
         <v>0.86912998399999997</v>
       </c>
       <c r="E252" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.86</v>
       </c>
       <c r="G252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I252">
@@ -10585,11 +10598,11 @@
         <v>0.82285637</v>
       </c>
       <c r="E253" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.82</v>
       </c>
       <c r="G253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I253">
@@ -10610,11 +10623,11 @@
         <v>1.1863233849999999</v>
       </c>
       <c r="E254" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.18</v>
       </c>
       <c r="G254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I254">
@@ -10635,11 +10648,11 @@
         <v>0.85826916499999995</v>
       </c>
       <c r="E255" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.85</v>
       </c>
       <c r="G255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I255">
@@ -10660,11 +10673,11 @@
         <v>1.2221237</v>
       </c>
       <c r="E256" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.22</v>
       </c>
       <c r="G256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I256">
@@ -10685,11 +10698,11 @@
         <v>0.86702797200000004</v>
       </c>
       <c r="E257" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.86</v>
       </c>
       <c r="G257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I257">
@@ -10710,11 +10723,11 @@
         <v>0.792634528</v>
       </c>
       <c r="E258" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.79</v>
       </c>
       <c r="G258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I258">
@@ -10735,11 +10748,11 @@
         <v>1.1565495649999999</v>
       </c>
       <c r="E259" s="1">
-        <f t="shared" ref="E259:E322" si="8">TRUNC(D259,2)</f>
+        <f t="shared" ref="E259:E322" si="11">TRUNC(D259,2)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="G259">
-        <f t="shared" ref="G259:G322" si="9">F259*140</f>
+        <f t="shared" ref="G259:G322" si="12">F259*140</f>
         <v>0</v>
       </c>
       <c r="I259">
@@ -10760,11 +10773,11 @@
         <v>0.853669452</v>
       </c>
       <c r="E260" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.85</v>
       </c>
       <c r="G260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I260">
@@ -10785,11 +10798,11 @@
         <v>1.298872909</v>
       </c>
       <c r="E261" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.29</v>
       </c>
       <c r="G261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I261">
@@ -10810,11 +10823,11 @@
         <v>1.344126149</v>
       </c>
       <c r="E262" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.34</v>
       </c>
       <c r="G262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I262">
@@ -10835,11 +10848,11 @@
         <v>1.0578017369999999</v>
       </c>
       <c r="E263" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.05</v>
       </c>
       <c r="G263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I263">
@@ -10860,11 +10873,11 @@
         <v>0.95361149999999995</v>
       </c>
       <c r="E264" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95</v>
       </c>
       <c r="G264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I264">
@@ -10885,11 +10898,11 @@
         <v>1.020853918</v>
       </c>
       <c r="E265" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.02</v>
       </c>
       <c r="G265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I265">
@@ -10910,11 +10923,11 @@
         <v>0.93253547800000003</v>
       </c>
       <c r="E266" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.93</v>
       </c>
       <c r="G266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I266">
@@ -10935,11 +10948,11 @@
         <v>1.445828895</v>
       </c>
       <c r="E267" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.44</v>
       </c>
       <c r="G267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I267">
@@ -10960,11 +10973,11 @@
         <v>1.2245215860000001</v>
       </c>
       <c r="E268" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.22</v>
       </c>
       <c r="G268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I268">
@@ -10985,11 +10998,11 @@
         <v>0.72000739800000002</v>
       </c>
       <c r="E269" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.72</v>
       </c>
       <c r="G269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I269">
@@ -11010,11 +11023,11 @@
         <v>1.055481203</v>
       </c>
       <c r="E270" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.05</v>
       </c>
       <c r="G270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I270">
@@ -11035,11 +11048,11 @@
         <v>1.100547065</v>
       </c>
       <c r="E271" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I271">
@@ -11060,11 +11073,11 @@
         <v>0.865403598</v>
       </c>
       <c r="E272" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.86</v>
       </c>
       <c r="G272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I272">
@@ -11085,11 +11098,11 @@
         <v>1.1671308490000001</v>
       </c>
       <c r="E273" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="G273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I273">
@@ -11110,11 +11123,11 @@
         <v>0.86990911199999998</v>
       </c>
       <c r="E274" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.86</v>
       </c>
       <c r="G274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I274">
@@ -11135,11 +11148,11 @@
         <v>1.169243837</v>
       </c>
       <c r="E275" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="G275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I275">
@@ -11160,11 +11173,11 @@
         <v>1.0867520079999999</v>
       </c>
       <c r="E276" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.08</v>
       </c>
       <c r="G276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I276">
@@ -11185,11 +11198,11 @@
         <v>0.931133455</v>
       </c>
       <c r="E277" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.93</v>
       </c>
       <c r="G277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I277">
@@ -11210,11 +11223,11 @@
         <v>1.0172235190000001</v>
       </c>
       <c r="E278" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.01</v>
       </c>
       <c r="G278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I278">
@@ -11235,11 +11248,11 @@
         <v>0.86019528599999995</v>
       </c>
       <c r="E279" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.86</v>
       </c>
       <c r="G279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I279">
@@ -11260,11 +11273,11 @@
         <v>0.92903986800000005</v>
       </c>
       <c r="E280" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.92</v>
       </c>
       <c r="G280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I280">
@@ -11285,11 +11298,11 @@
         <v>0.90915295900000004</v>
       </c>
       <c r="E281" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
       <c r="G281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I281">
@@ -11310,11 +11323,11 @@
         <v>0.84076482699999999</v>
       </c>
       <c r="E282" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.84</v>
       </c>
       <c r="G282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I282">
@@ -11335,11 +11348,11 @@
         <v>1.0375791299999999</v>
       </c>
       <c r="E283" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.03</v>
       </c>
       <c r="G283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I283">
@@ -11360,11 +11373,11 @@
         <v>0.94982895199999995</v>
       </c>
       <c r="E284" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.94</v>
       </c>
       <c r="G284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I284">
@@ -11385,11 +11398,11 @@
         <v>1.041374953</v>
       </c>
       <c r="E285" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.04</v>
       </c>
       <c r="G285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I285">
@@ -11410,11 +11423,11 @@
         <v>0.86891682100000001</v>
       </c>
       <c r="E286" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.86</v>
       </c>
       <c r="G286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I286">
@@ -11435,11 +11448,11 @@
         <v>0.88055753400000003</v>
       </c>
       <c r="E287" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.88</v>
       </c>
       <c r="G287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I287">
@@ -11460,11 +11473,11 @@
         <v>1.083427184</v>
       </c>
       <c r="E288" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.08</v>
       </c>
       <c r="G288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I288">
@@ -11485,11 +11498,11 @@
         <v>1.1766128769999999</v>
       </c>
       <c r="E289" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.17</v>
       </c>
       <c r="G289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I289">
@@ -11510,11 +11523,11 @@
         <v>1.0923868999999999</v>
       </c>
       <c r="E290" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="G290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I290">
@@ -11535,11 +11548,11 @@
         <v>0.99508244899999998</v>
       </c>
       <c r="E291" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99</v>
       </c>
       <c r="G291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I291">
@@ -11560,11 +11573,11 @@
         <v>1.07529893</v>
       </c>
       <c r="E292" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.07</v>
       </c>
       <c r="G292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I292">
@@ -11585,11 +11598,11 @@
         <v>0.91914325900000005</v>
       </c>
       <c r="E293" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.91</v>
       </c>
       <c r="G293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I293">
@@ -11610,11 +11623,11 @@
         <v>1.027400686</v>
       </c>
       <c r="E294" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.02</v>
       </c>
       <c r="G294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I294">
@@ -11635,11 +11648,11 @@
         <v>0.77793474399999996</v>
       </c>
       <c r="E295" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.77</v>
       </c>
       <c r="G295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I295">
@@ -11660,11 +11673,11 @@
         <v>1.2246341679999999</v>
       </c>
       <c r="E296" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.22</v>
       </c>
       <c r="G296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I296">
@@ -11685,11 +11698,11 @@
         <v>0.99054323799999999</v>
       </c>
       <c r="E297" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.99</v>
       </c>
       <c r="G297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I297">
@@ -11710,11 +11723,11 @@
         <v>1.010540684</v>
       </c>
       <c r="E298" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.01</v>
       </c>
       <c r="G298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I298">
@@ -11735,11 +11748,11 @@
         <v>1.0661148170000001</v>
       </c>
       <c r="E299" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.06</v>
       </c>
       <c r="G299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I299">
@@ -11760,11 +11773,11 @@
         <v>0.96645485799999997</v>
       </c>
       <c r="E300" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
       <c r="G300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I300">
@@ -11785,11 +11798,11 @@
         <v>1.109432494</v>
       </c>
       <c r="E301" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I301">
@@ -11810,11 +11823,11 @@
         <v>1.0639883000000001</v>
       </c>
       <c r="E302" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.06</v>
       </c>
       <c r="G302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I302">
@@ -11835,11 +11848,11 @@
         <v>1.199651271</v>
       </c>
       <c r="E303" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.19</v>
       </c>
       <c r="G303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I303">
@@ -11860,11 +11873,11 @@
         <v>1.0471433610000001</v>
       </c>
       <c r="E304" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.04</v>
       </c>
       <c r="G304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I304">
@@ -11885,11 +11898,11 @@
         <v>1.0238889950000001</v>
       </c>
       <c r="E305" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.02</v>
       </c>
       <c r="G305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I305">
@@ -11910,11 +11923,11 @@
         <v>1.076490087</v>
       </c>
       <c r="E306" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.07</v>
       </c>
       <c r="G306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I306">
@@ -11935,11 +11948,11 @@
         <v>0.86155493100000002</v>
       </c>
       <c r="E307" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.86</v>
       </c>
       <c r="G307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I307">
@@ -11960,11 +11973,11 @@
         <v>1.4286786359999999</v>
       </c>
       <c r="E308" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.42</v>
       </c>
       <c r="G308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I308">
@@ -11985,11 +11998,11 @@
         <v>1.289580301</v>
       </c>
       <c r="E309" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.28</v>
       </c>
       <c r="G309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I309">
@@ -12010,11 +12023,11 @@
         <v>0.75040819400000003</v>
       </c>
       <c r="E310" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
       <c r="G310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I310">
@@ -12035,11 +12048,11 @@
         <v>0.75494178999999995</v>
       </c>
       <c r="E311" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
       <c r="G311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I311">
@@ -12060,11 +12073,11 @@
         <v>0.67962294000000001</v>
       </c>
       <c r="E312" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.67</v>
       </c>
       <c r="G312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I312">
@@ -12085,11 +12098,11 @@
         <v>1.101050487</v>
       </c>
       <c r="E313" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I313">
@@ -12110,11 +12123,11 @@
         <v>1.048965835</v>
       </c>
       <c r="E314" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.04</v>
       </c>
       <c r="G314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I314">
@@ -12135,11 +12148,11 @@
         <v>1.125908548</v>
       </c>
       <c r="E315" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I315">
@@ -12160,11 +12173,11 @@
         <v>1.1187784549999999</v>
       </c>
       <c r="E316" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="G316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I316">
@@ -12185,11 +12198,11 @@
         <v>1.1705480859999999</v>
       </c>
       <c r="E317" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.17</v>
       </c>
       <c r="G317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I317">
@@ -12210,11 +12223,11 @@
         <v>0.94391299200000001</v>
       </c>
       <c r="E318" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.94</v>
       </c>
       <c r="G318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I318">
@@ -12235,11 +12248,11 @@
         <v>0.80486035300000003</v>
       </c>
       <c r="E319" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
       <c r="G319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I319">
@@ -12260,11 +12273,11 @@
         <v>1.015007652</v>
       </c>
       <c r="E320" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.01</v>
       </c>
       <c r="G320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I320">
@@ -12285,11 +12298,11 @@
         <v>1.127206159</v>
       </c>
       <c r="E321" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I321">
@@ -12310,11 +12323,11 @@
         <v>0.90517741500000004</v>
       </c>
       <c r="E322" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
       <c r="G322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I322">
@@ -12335,11 +12348,11 @@
         <v>1.1341215570000001</v>
       </c>
       <c r="E323" s="1">
-        <f t="shared" ref="E323:E386" si="10">TRUNC(D323,2)</f>
+        <f t="shared" ref="E323:E386" si="13">TRUNC(D323,2)</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="G323">
-        <f t="shared" ref="G323:G386" si="11">F323*140</f>
+        <f t="shared" ref="G323:G386" si="14">F323*140</f>
         <v>0</v>
       </c>
       <c r="I323">
@@ -12360,11 +12373,11 @@
         <v>1.075792394</v>
       </c>
       <c r="E324" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.07</v>
       </c>
       <c r="G324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I324">
@@ -12385,11 +12398,11 @@
         <v>1.2878630049999999</v>
       </c>
       <c r="E325" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.28</v>
       </c>
       <c r="G325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I325">
@@ -12410,11 +12423,11 @@
         <v>0.93613039200000003</v>
       </c>
       <c r="E326" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.93</v>
       </c>
       <c r="G326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I326">
@@ -12435,11 +12448,11 @@
         <v>1.368887714</v>
       </c>
       <c r="E327" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.36</v>
       </c>
       <c r="G327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I327">
@@ -12460,11 +12473,11 @@
         <v>0.88398089800000001</v>
       </c>
       <c r="E328" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88</v>
       </c>
       <c r="G328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I328">
@@ -12485,11 +12498,11 @@
         <v>1.2557099350000001</v>
       </c>
       <c r="E329" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.25</v>
       </c>
       <c r="G329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I329">
@@ -12510,11 +12523,11 @@
         <v>0.99874220700000005</v>
       </c>
       <c r="E330" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.99</v>
       </c>
       <c r="G330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I330">
@@ -12535,11 +12548,11 @@
         <v>0.90038240899999999</v>
       </c>
       <c r="E331" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
       <c r="G331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I331">
@@ -12560,11 +12573,11 @@
         <v>0.96655569500000005</v>
       </c>
       <c r="E332" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.96</v>
       </c>
       <c r="G332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I332">
@@ -12585,11 +12598,11 @@
         <v>0.907252112</v>
       </c>
       <c r="E333" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
       <c r="G333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I333">
@@ -12610,11 +12623,11 @@
         <v>1.1062023809999999</v>
       </c>
       <c r="E334" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I334">
@@ -12635,11 +12648,11 @@
         <v>0.80503726499999995</v>
       </c>
       <c r="E335" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
       <c r="G335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I335">
@@ -12660,11 +12673,11 @@
         <v>0.70159603199999998</v>
       </c>
       <c r="E336" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
       <c r="G336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I336">
@@ -12685,11 +12698,11 @@
         <v>0.75641324799999998</v>
       </c>
       <c r="E337" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
       <c r="G337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I337">
@@ -12710,11 +12723,11 @@
         <v>1.025578468</v>
       </c>
       <c r="E338" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.02</v>
       </c>
       <c r="G338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I338">
@@ -12735,11 +12748,11 @@
         <v>0.96035100799999995</v>
       </c>
       <c r="E339" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.96</v>
       </c>
       <c r="G339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I339">
@@ -12760,11 +12773,11 @@
         <v>0.93160956100000003</v>
       </c>
       <c r="E340" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.93</v>
       </c>
       <c r="G340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I340">
@@ -12785,11 +12798,11 @@
         <v>0.73752680000000004</v>
       </c>
       <c r="E341" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73</v>
       </c>
       <c r="G341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I341">
@@ -12810,11 +12823,11 @@
         <v>0.65318670999999995</v>
       </c>
       <c r="E342" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="G342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I342">
@@ -12835,11 +12848,11 @@
         <v>1.3338241479999999</v>
       </c>
       <c r="E343" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.33</v>
       </c>
       <c r="G343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I343">
@@ -12860,11 +12873,11 @@
         <v>0.98543448600000005</v>
       </c>
       <c r="E344" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.98</v>
       </c>
       <c r="G344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I344">
@@ -12885,11 +12898,11 @@
         <v>0.73680970599999995</v>
       </c>
       <c r="E345" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.73</v>
       </c>
       <c r="G345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I345">
@@ -12910,11 +12923,11 @@
         <v>0.71536760399999999</v>
       </c>
       <c r="E346" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.71</v>
       </c>
       <c r="G346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I346">
@@ -12935,11 +12948,11 @@
         <v>0.95289032299999998</v>
       </c>
       <c r="E347" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.95</v>
       </c>
       <c r="G347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I347">
@@ -12960,11 +12973,11 @@
         <v>1.0233631089999999</v>
       </c>
       <c r="E348" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.02</v>
       </c>
       <c r="G348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I348">
@@ -12985,11 +12998,11 @@
         <v>0.54982078599999995</v>
       </c>
       <c r="E349" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.54</v>
       </c>
       <c r="G349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I349">
@@ -13010,11 +13023,11 @@
         <v>0.92635172300000002</v>
       </c>
       <c r="E350" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.92</v>
       </c>
       <c r="G350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I350">
@@ -13035,11 +13048,11 @@
         <v>0.81078422699999997</v>
       </c>
       <c r="E351" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.81</v>
       </c>
       <c r="G351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I351">
@@ -13060,11 +13073,11 @@
         <v>1.068630135</v>
       </c>
       <c r="E352" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.06</v>
       </c>
       <c r="G352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I352">
@@ -13085,11 +13098,11 @@
         <v>0.67265444299999999</v>
       </c>
       <c r="E353" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.67</v>
       </c>
       <c r="G353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I353">
@@ -13110,11 +13123,11 @@
         <v>1.0064905980000001</v>
       </c>
       <c r="E354" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I354">
@@ -13135,11 +13148,11 @@
         <v>0.96294520800000005</v>
       </c>
       <c r="E355" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.96</v>
       </c>
       <c r="G355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I355">
@@ -13160,11 +13173,11 @@
         <v>0.927083879</v>
       </c>
       <c r="E356" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.92</v>
       </c>
       <c r="G356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I356">
@@ -13185,11 +13198,11 @@
         <v>1.1492178</v>
       </c>
       <c r="E357" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="G357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I357">
@@ -13210,11 +13223,11 @@
         <v>1.1965449720000001</v>
       </c>
       <c r="E358" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.19</v>
       </c>
       <c r="G358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I358">
@@ -13235,11 +13248,11 @@
         <v>0.78473322199999995</v>
       </c>
       <c r="E359" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.78</v>
       </c>
       <c r="G359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I359">
@@ -13260,11 +13273,11 @@
         <v>0.82190211700000004</v>
       </c>
       <c r="E360" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.82</v>
       </c>
       <c r="G360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I360">
@@ -13285,11 +13298,11 @@
         <v>1.1434488840000001</v>
       </c>
       <c r="E361" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="G361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I361">
@@ -13310,11 +13323,11 @@
         <v>0.85327733500000003</v>
       </c>
       <c r="E362" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.85</v>
       </c>
       <c r="G362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I362">
@@ -13335,11 +13348,11 @@
         <v>0.89178621800000002</v>
       </c>
       <c r="E363" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.89</v>
       </c>
       <c r="G363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I363">
@@ -13360,11 +13373,11 @@
         <v>0.91073776399999995</v>
       </c>
       <c r="E364" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.91</v>
       </c>
       <c r="G364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I364">
@@ -13385,11 +13398,11 @@
         <v>0.72793040399999998</v>
       </c>
       <c r="E365" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.72</v>
       </c>
       <c r="G365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I365">
@@ -13410,11 +13423,11 @@
         <v>0.88586745</v>
       </c>
       <c r="E366" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88</v>
       </c>
       <c r="G366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I366">
@@ -13435,11 +13448,11 @@
         <v>0.68984733499999995</v>
       </c>
       <c r="E367" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.68</v>
       </c>
       <c r="G367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I367">
@@ -13460,11 +13473,11 @@
         <v>1.2048805170000001</v>
       </c>
       <c r="E368" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
       <c r="G368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I368">
@@ -13485,11 +13498,11 @@
         <v>0.797252878</v>
       </c>
       <c r="E369" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.79</v>
       </c>
       <c r="G369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I369">
@@ -13510,11 +13523,11 @@
         <v>0.76677830599999997</v>
       </c>
       <c r="E370" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.76</v>
       </c>
       <c r="G370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I370">
@@ -13535,11 +13548,11 @@
         <v>0.71298018500000004</v>
       </c>
       <c r="E371" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.71</v>
       </c>
       <c r="G371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I371">
@@ -13560,11 +13573,11 @@
         <v>0.90602291700000004</v>
       </c>
       <c r="E372" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
       <c r="G372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I372">
@@ -13585,11 +13598,11 @@
         <v>1.1298759220000001</v>
       </c>
       <c r="E373" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I373">
@@ -13610,11 +13623,11 @@
         <v>0.98938373599999996</v>
       </c>
       <c r="E374" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.98</v>
       </c>
       <c r="G374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I374">
@@ -13635,11 +13648,11 @@
         <v>0.96778769799999997</v>
       </c>
       <c r="E375" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.96</v>
       </c>
       <c r="G375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I375">
@@ -13660,11 +13673,11 @@
         <v>0.98038164299999997</v>
       </c>
       <c r="E376" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.98</v>
       </c>
       <c r="G376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I376">
@@ -13685,11 +13698,11 @@
         <v>0.90414734399999996</v>
       </c>
       <c r="E377" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
       <c r="G377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I377">
@@ -13710,11 +13723,11 @@
         <v>1.029326296</v>
       </c>
       <c r="E378" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.02</v>
       </c>
       <c r="G378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I378">
@@ -13735,11 +13748,11 @@
         <v>1.3831262019999999</v>
       </c>
       <c r="E379" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.38</v>
       </c>
       <c r="G379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I379">
@@ -13760,11 +13773,11 @@
         <v>0.99143954099999998</v>
       </c>
       <c r="E380" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.99</v>
       </c>
       <c r="G380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I380">
@@ -13785,11 +13798,11 @@
         <v>1.2466049619999999</v>
       </c>
       <c r="E381" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.24</v>
       </c>
       <c r="G381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I381">
@@ -13810,11 +13823,11 @@
         <v>1.1347115189999999</v>
       </c>
       <c r="E382" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="G382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I382">
@@ -13835,11 +13848,11 @@
         <v>0.985470226</v>
       </c>
       <c r="E383" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.98</v>
       </c>
       <c r="G383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I383">
@@ -13860,11 +13873,11 @@
         <v>0.97220181999999999</v>
       </c>
       <c r="E384" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.97</v>
       </c>
       <c r="G384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I384">
@@ -13885,11 +13898,11 @@
         <v>0.70040462100000001</v>
       </c>
       <c r="E385" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
       <c r="G385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I385">
@@ -13910,11 +13923,11 @@
         <v>0.88706703099999995</v>
       </c>
       <c r="E386" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88</v>
       </c>
       <c r="G386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I386">
@@ -13935,11 +13948,11 @@
         <v>0.80038521799999995</v>
       </c>
       <c r="E387" s="1">
-        <f t="shared" ref="E387:E450" si="12">TRUNC(D387,2)</f>
+        <f t="shared" ref="E387:E450" si="15">TRUNC(D387,2)</f>
         <v>0.8</v>
       </c>
       <c r="G387">
-        <f t="shared" ref="G387:G450" si="13">F387*140</f>
+        <f t="shared" ref="G387:G450" si="16">F387*140</f>
         <v>0</v>
       </c>
       <c r="I387">
@@ -13960,11 +13973,11 @@
         <v>1.1694409180000001</v>
       </c>
       <c r="E388" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="G388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I388">
@@ -13985,11 +13998,11 @@
         <v>0.92438628899999997</v>
       </c>
       <c r="E389" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.92</v>
       </c>
       <c r="G389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I389">
@@ -14010,11 +14023,11 @@
         <v>1.1386998269999999</v>
       </c>
       <c r="E390" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="G390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I390">
@@ -14035,11 +14048,11 @@
         <v>1.0855621280000001</v>
       </c>
       <c r="E391" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.08</v>
       </c>
       <c r="G391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I391">
@@ -14060,11 +14073,11 @@
         <v>0.90175481800000001</v>
       </c>
       <c r="E392" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
       <c r="G392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I392">
@@ -14085,11 +14098,11 @@
         <v>0.904747517</v>
       </c>
       <c r="E393" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
       <c r="G393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I393">
@@ -14110,11 +14123,11 @@
         <v>0.95177217599999997</v>
       </c>
       <c r="E394" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
       <c r="G394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I394">
@@ -14135,11 +14148,11 @@
         <v>1.057142338</v>
       </c>
       <c r="E395" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.05</v>
       </c>
       <c r="G395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I395">
@@ -14160,11 +14173,11 @@
         <v>0.88200448600000003</v>
       </c>
       <c r="E396" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.88</v>
       </c>
       <c r="G396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I396">
@@ -14185,11 +14198,11 @@
         <v>1.1699961619999999</v>
       </c>
       <c r="E397" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="G397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I397">
@@ -14210,11 +14223,11 @@
         <v>0.86057387299999999</v>
       </c>
       <c r="E398" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.86</v>
       </c>
       <c r="G398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I398">
@@ -14235,11 +14248,11 @@
         <v>1.150427847</v>
       </c>
       <c r="E399" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I399">
@@ -14260,11 +14273,11 @@
         <v>0.818895123</v>
       </c>
       <c r="E400" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.81</v>
       </c>
       <c r="G400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I400">
@@ -14285,11 +14298,11 @@
         <v>1.192847942</v>
       </c>
       <c r="E401" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.19</v>
       </c>
       <c r="G401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I401">
@@ -14310,11 +14323,11 @@
         <v>0.90126237300000001</v>
       </c>
       <c r="E402" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
       <c r="G402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I402">
@@ -14335,11 +14348,11 @@
         <v>1.179440153</v>
       </c>
       <c r="E403" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.17</v>
       </c>
       <c r="G403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I403">
@@ -14360,11 +14373,11 @@
         <v>0.94976155699999998</v>
       </c>
       <c r="E404" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.94</v>
       </c>
       <c r="G404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I404">
@@ -14385,11 +14398,11 @@
         <v>0.98933931600000002</v>
       </c>
       <c r="E405" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.98</v>
       </c>
       <c r="G405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I405">
@@ -14410,11 +14423,11 @@
         <v>0.86524251299999999</v>
       </c>
       <c r="E406" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.86</v>
       </c>
       <c r="G406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I406">
@@ -14435,11 +14448,11 @@
         <v>0.97640660999999995</v>
       </c>
       <c r="E407" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.97</v>
       </c>
       <c r="G407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I407">
@@ -14460,11 +14473,11 @@
         <v>0.88410139300000001</v>
       </c>
       <c r="E408" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.88</v>
       </c>
       <c r="G408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I408">
@@ -14485,11 +14498,11 @@
         <v>0.89189573600000005</v>
       </c>
       <c r="E409" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.89</v>
       </c>
       <c r="G409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I409">
@@ -14510,11 +14523,11 @@
         <v>0.93931225600000001</v>
       </c>
       <c r="E410" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.93</v>
       </c>
       <c r="G410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I410">
@@ -14535,11 +14548,11 @@
         <v>1.314636718</v>
       </c>
       <c r="E411" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.31</v>
       </c>
       <c r="G411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I411">
@@ -14560,11 +14573,11 @@
         <v>1.1351148689999999</v>
       </c>
       <c r="E412" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="G412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I412">
@@ -14585,11 +14598,11 @@
         <v>1.2114341769999999</v>
       </c>
       <c r="E413" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.21</v>
       </c>
       <c r="G413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I413">
@@ -14610,11 +14623,11 @@
         <v>1.3292221369999999</v>
       </c>
       <c r="E414" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.32</v>
       </c>
       <c r="G414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I414">
@@ -14635,11 +14648,11 @@
         <v>0.86833247599999996</v>
       </c>
       <c r="E415" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.86</v>
       </c>
       <c r="G415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I415">
@@ -14660,11 +14673,11 @@
         <v>1.116607517</v>
       </c>
       <c r="E416" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1100000000000001</v>
       </c>
       <c r="G416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I416">
@@ -14685,11 +14698,11 @@
         <v>1.0083296669999999</v>
       </c>
       <c r="E417" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I417">
@@ -14710,11 +14723,11 @@
         <v>0.93785943400000005</v>
       </c>
       <c r="E418" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.93</v>
       </c>
       <c r="G418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I418">
@@ -14735,11 +14748,11 @@
         <v>0.85745327699999996</v>
       </c>
       <c r="E419" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.85</v>
       </c>
       <c r="G419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I419">
@@ -14760,11 +14773,11 @@
         <v>0.93237720000000002</v>
       </c>
       <c r="E420" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.93</v>
       </c>
       <c r="G420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I420">
@@ -14785,11 +14798,11 @@
         <v>0.98811624799999997</v>
       </c>
       <c r="E421" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.98</v>
       </c>
       <c r="G421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I421">
@@ -14810,11 +14823,11 @@
         <v>0.95153629500000003</v>
       </c>
       <c r="E422" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
       <c r="G422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I422">
@@ -14835,11 +14848,11 @@
         <v>1.18009802</v>
       </c>
       <c r="E423" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.18</v>
       </c>
       <c r="G423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I423">
@@ -14860,11 +14873,11 @@
         <v>1.0176585229999999</v>
       </c>
       <c r="E424" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.01</v>
       </c>
       <c r="G424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I424">
@@ -14885,11 +14898,11 @@
         <v>0.84570815200000005</v>
       </c>
       <c r="E425" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.84</v>
       </c>
       <c r="G425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I425">
@@ -14910,11 +14923,11 @@
         <v>1.109601748</v>
       </c>
       <c r="E426" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I426">
@@ -14935,11 +14948,11 @@
         <v>0.88685540100000004</v>
       </c>
       <c r="E427" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.88</v>
       </c>
       <c r="G427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I427">
@@ -14960,11 +14973,11 @@
         <v>0.80961298299999995</v>
       </c>
       <c r="E428" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
       <c r="G428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I428">
@@ -14985,11 +14998,11 @@
         <v>0.93987592399999997</v>
       </c>
       <c r="E429" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.93</v>
       </c>
       <c r="G429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I429">
@@ -15010,11 +15023,11 @@
         <v>0.94354512700000004</v>
       </c>
       <c r="E430" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.94</v>
       </c>
       <c r="G430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I430">
@@ -15035,11 +15048,11 @@
         <v>0.90238562499999997</v>
       </c>
       <c r="E431" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.9</v>
       </c>
       <c r="G431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I431">
@@ -15060,11 +15073,11 @@
         <v>1.2000375160000001</v>
       </c>
       <c r="E432" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2</v>
       </c>
       <c r="G432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I432">
@@ -15085,11 +15098,11 @@
         <v>1.57465765</v>
       </c>
       <c r="E433" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.57</v>
       </c>
       <c r="G433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I433">
@@ -15110,11 +15123,11 @@
         <v>0.97981925000000003</v>
       </c>
       <c r="E434" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.97</v>
       </c>
       <c r="G434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I434">
@@ -15135,11 +15148,11 @@
         <v>0.92817726199999995</v>
       </c>
       <c r="E435" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.92</v>
       </c>
       <c r="G435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I435">
@@ -15160,11 +15173,11 @@
         <v>1.2937360760000001</v>
       </c>
       <c r="E436" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.29</v>
       </c>
       <c r="G436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I436">
@@ -15185,11 +15198,11 @@
         <v>0.839189721</v>
       </c>
       <c r="E437" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.83</v>
       </c>
       <c r="G437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I437">
@@ -15210,11 +15223,11 @@
         <v>0.83632543100000001</v>
       </c>
       <c r="E438" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.83</v>
       </c>
       <c r="G438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I438">
@@ -15235,11 +15248,11 @@
         <v>1.044111091</v>
       </c>
       <c r="E439" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.04</v>
       </c>
       <c r="G439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I439">
@@ -15260,11 +15273,11 @@
         <v>1.375735462</v>
       </c>
       <c r="E440" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.37</v>
       </c>
       <c r="G440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I440">
@@ -15285,11 +15298,11 @@
         <v>1.004161383</v>
       </c>
       <c r="E441" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I441">
@@ -15310,11 +15323,11 @@
         <v>1.019678589</v>
       </c>
       <c r="E442" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.01</v>
       </c>
       <c r="G442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I442">
@@ -15335,11 +15348,11 @@
         <v>0.74063641899999999</v>
       </c>
       <c r="E443" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.74</v>
       </c>
       <c r="G443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I443">
@@ -15360,11 +15373,11 @@
         <v>1.013826194</v>
       </c>
       <c r="E444" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.01</v>
       </c>
       <c r="G444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I444">
@@ -15385,11 +15398,11 @@
         <v>0.86042095799999996</v>
       </c>
       <c r="E445" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.86</v>
       </c>
       <c r="G445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I445">
@@ -15410,11 +15423,11 @@
         <v>1.144249455</v>
       </c>
       <c r="E446" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="G446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I446">
@@ -15435,11 +15448,11 @@
         <v>1.1473634150000001</v>
       </c>
       <c r="E447" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="G447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I447">
@@ -15460,11 +15473,11 @@
         <v>0.92768686099999997</v>
       </c>
       <c r="E448" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.92</v>
       </c>
       <c r="G448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I448">
@@ -15485,11 +15498,11 @@
         <v>1.2720897470000001</v>
       </c>
       <c r="E449" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.27</v>
       </c>
       <c r="G449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I449">
@@ -15510,11 +15523,11 @@
         <v>1.2685936280000001</v>
       </c>
       <c r="E450" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.26</v>
       </c>
       <c r="G450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I450">
@@ -15535,11 +15548,11 @@
         <v>1.0018178710000001</v>
       </c>
       <c r="E451" s="1">
-        <f t="shared" ref="E451:E501" si="14">TRUNC(D451,2)</f>
+        <f t="shared" ref="E451:E501" si="17">TRUNC(D451,2)</f>
         <v>1</v>
       </c>
       <c r="G451">
-        <f t="shared" ref="G451:G501" si="15">F451*140</f>
+        <f t="shared" ref="G451:G501" si="18">F451*140</f>
         <v>0</v>
       </c>
       <c r="I451">
@@ -15560,11 +15573,11 @@
         <v>0.68973577500000005</v>
       </c>
       <c r="E452" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.68</v>
       </c>
       <c r="G452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I452">
@@ -15585,11 +15598,11 @@
         <v>1.122631462</v>
       </c>
       <c r="E453" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I453">
@@ -15610,11 +15623,11 @@
         <v>0.72843254800000001</v>
       </c>
       <c r="E454" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.72</v>
       </c>
       <c r="G454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I454">
@@ -15635,11 +15648,11 @@
         <v>1.465752054</v>
       </c>
       <c r="E455" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.46</v>
       </c>
       <c r="G455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I455">
@@ -15660,11 +15673,11 @@
         <v>0.968948476</v>
       </c>
       <c r="E456" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.96</v>
       </c>
       <c r="G456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I456">
@@ -15685,11 +15698,11 @@
         <v>0.83113345500000002</v>
       </c>
       <c r="E457" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.83</v>
       </c>
       <c r="G457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I457">
@@ -15710,11 +15723,11 @@
         <v>0.77169406100000004</v>
       </c>
       <c r="E458" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.77</v>
       </c>
       <c r="G458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I458">
@@ -15735,11 +15748,11 @@
         <v>0.95682680799999997</v>
       </c>
       <c r="E459" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.95</v>
       </c>
       <c r="G459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I459">
@@ -15760,11 +15773,11 @@
         <v>0.87497727300000006</v>
       </c>
       <c r="E460" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.87</v>
       </c>
       <c r="G460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I460">
@@ -15785,11 +15798,11 @@
         <v>1.1225421120000001</v>
       </c>
       <c r="E461" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I461">
@@ -15810,11 +15823,11 @@
         <v>1.0252016669999999</v>
       </c>
       <c r="E462" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.02</v>
       </c>
       <c r="G462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I462">
@@ -15835,11 +15848,11 @@
         <v>1.1263333419999999</v>
       </c>
       <c r="E463" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I463">
@@ -15860,11 +15873,11 @@
         <v>1.0274647619999999</v>
       </c>
       <c r="E464" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.02</v>
       </c>
       <c r="G464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I464">
@@ -15885,11 +15898,11 @@
         <v>0.760499331</v>
       </c>
       <c r="E465" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.76</v>
       </c>
       <c r="G465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I465">
@@ -15910,11 +15923,11 @@
         <v>1.057385112</v>
       </c>
       <c r="E466" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.05</v>
       </c>
       <c r="G466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I466">
@@ -15935,11 +15948,11 @@
         <v>0.79828958900000002</v>
       </c>
       <c r="E467" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.79</v>
       </c>
       <c r="G467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I467">
@@ -15960,11 +15973,11 @@
         <v>1.2799512319999999</v>
       </c>
       <c r="E468" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.27</v>
       </c>
       <c r="G468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I468">
@@ -15985,11 +15998,11 @@
         <v>0.813146119</v>
       </c>
       <c r="E469" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.81</v>
       </c>
       <c r="G469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I469">
@@ -16010,11 +16023,11 @@
         <v>0.896177365</v>
       </c>
       <c r="E470" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.89</v>
       </c>
       <c r="G470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I470">
@@ -16035,11 +16048,11 @@
         <v>0.82361277799999999</v>
       </c>
       <c r="E471" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.82</v>
       </c>
       <c r="G471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I471">
@@ -16060,11 +16073,11 @@
         <v>1.158844062</v>
       </c>
       <c r="E472" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="G472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I472">
@@ -16085,11 +16098,11 @@
         <v>0.98594811900000001</v>
       </c>
       <c r="E473" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.98</v>
       </c>
       <c r="G473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I473">
@@ -16110,11 +16123,11 @@
         <v>0.84359873699999999</v>
       </c>
       <c r="E474" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.84</v>
       </c>
       <c r="G474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I474">
@@ -16135,11 +16148,11 @@
         <v>1.0497286240000001</v>
       </c>
       <c r="E475" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.04</v>
       </c>
       <c r="G475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I475">
@@ -16160,11 +16173,11 @@
         <v>1.049617319</v>
       </c>
       <c r="E476" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.04</v>
       </c>
       <c r="G476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I476">
@@ -16185,11 +16198,11 @@
         <v>1.2209192689999999</v>
       </c>
       <c r="E477" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.22</v>
       </c>
       <c r="G477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I477">
@@ -16210,11 +16223,11 @@
         <v>0.73297380199999995</v>
       </c>
       <c r="E478" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.73</v>
       </c>
       <c r="G478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I478">
@@ -16235,11 +16248,11 @@
         <v>0.85464795599999999</v>
       </c>
       <c r="E479" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.85</v>
       </c>
       <c r="G479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I479">
@@ -16260,11 +16273,11 @@
         <v>1.330122781</v>
       </c>
       <c r="E480" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.33</v>
       </c>
       <c r="G480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I480">
@@ -16285,11 +16298,11 @@
         <v>1.015590464</v>
       </c>
       <c r="E481" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.01</v>
       </c>
       <c r="G481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I481">
@@ -16310,11 +16323,11 @@
         <v>0.94090803899999997</v>
       </c>
       <c r="E482" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.94</v>
       </c>
       <c r="G482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I482">
@@ -16335,11 +16348,11 @@
         <v>0.92079214099999995</v>
       </c>
       <c r="E483" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.92</v>
       </c>
       <c r="G483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I483">
@@ -16360,11 +16373,11 @@
         <v>1.23035509</v>
       </c>
       <c r="E484" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.23</v>
       </c>
       <c r="G484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I484">
@@ -16385,11 +16398,11 @@
         <v>0.88100785500000001</v>
       </c>
       <c r="E485" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.88</v>
       </c>
       <c r="G485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I485">
@@ -16410,11 +16423,11 @@
         <v>1.3647191759999999</v>
       </c>
       <c r="E486" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.36</v>
       </c>
       <c r="G486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I486">
@@ -16435,11 +16448,11 @@
         <v>0.80542274400000002</v>
       </c>
       <c r="E487" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
       <c r="G487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I487">
@@ -16460,11 +16473,11 @@
         <v>0.67488741500000005</v>
       </c>
       <c r="E488" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.67</v>
       </c>
       <c r="G488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I488">
@@ -16485,11 +16498,11 @@
         <v>0.84226385500000001</v>
       </c>
       <c r="E489" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.84</v>
       </c>
       <c r="G489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I489">
@@ -16510,11 +16523,11 @@
         <v>1.0750778519999999</v>
       </c>
       <c r="E490" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.07</v>
       </c>
       <c r="G490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I490">
@@ -16535,11 +16548,11 @@
         <v>1.126942705</v>
       </c>
       <c r="E491" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I491">
@@ -16560,11 +16573,11 @@
         <v>0.88555855400000005</v>
       </c>
       <c r="E492" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.88</v>
       </c>
       <c r="G492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I492">
@@ -16585,11 +16598,11 @@
         <v>0.945979774</v>
       </c>
       <c r="E493" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.94</v>
       </c>
       <c r="G493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I493">
@@ -16610,11 +16623,11 @@
         <v>1.2329505670000001</v>
       </c>
       <c r="E494" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.23</v>
       </c>
       <c r="G494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I494">
@@ -16635,11 +16648,11 @@
         <v>1.1217951509999999</v>
       </c>
       <c r="E495" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="G495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I495">
@@ -16660,11 +16673,11 @@
         <v>0.90548069399999997</v>
       </c>
       <c r="E496" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
       <c r="G496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I496">
@@ -16685,11 +16698,11 @@
         <v>0.79604461800000004</v>
       </c>
       <c r="E497" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.79</v>
       </c>
       <c r="G497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I497">
@@ -16710,11 +16723,11 @@
         <v>1.0275125000000001</v>
       </c>
       <c r="E498" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.02</v>
       </c>
       <c r="G498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I498">
@@ -16735,11 +16748,11 @@
         <v>0.92841033699999997</v>
       </c>
       <c r="E499" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.92</v>
       </c>
       <c r="G499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I499">
@@ -16760,11 +16773,11 @@
         <v>1.313351363</v>
       </c>
       <c r="E500" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.31</v>
       </c>
       <c r="G500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I500">
@@ -16785,11 +16798,11 @@
         <v>1.0525209250000001</v>
       </c>
       <c r="E501" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.05</v>
       </c>
       <c r="G501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I501">

--- a/experiments/500ebddgraph.xlsx
+++ b/experiments/500ebddgraph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jjavillo\gems\Geometric-LWE-Estimator\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4EB197-B461-410C-8634-2E22406B6CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD07F5C-53C6-48B9-B8FF-2CF7835392C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500ebdd" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Predicted Beta</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>Scaled Norms By 140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norm Variance
+</t>
   </si>
 </sst>
 </file>
@@ -580,10 +584,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3629,27 +3636,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N501"/>
+  <dimension ref="A1:P501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.23046875" style="1"/>
-    <col min="5" max="5" width="15.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3689,8 +3697,11 @@
       <c r="N1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3737,8 +3748,12 @@
       <c r="N2">
         <v>14.608283610000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="P2">
+        <f>VAR(G2:G501)</f>
+        <v>3195.7396923446895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3763,14 +3778,14 @@
         <v>130.20000000000002</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H2:H33" si="2">COUNTIF($E$2:$E$501, F3)/500</f>
+        <f t="shared" ref="H3:H33" si="2">COUNTIF($E$2:$E$501, F3)/500</f>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I3">
         <v>67.842162369999997</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3803,7 +3818,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3835,7 +3850,7 @@
         <v>74.929557090000003</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3867,7 +3882,7 @@
         <v>57.605531220000003</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3899,7 +3914,7 @@
         <v>72.027500149999995</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3931,7 +3946,7 @@
         <v>68.331065179999996</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3963,7 +3978,7 @@
         <v>186.58825160000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3995,7 +4010,7 @@
         <v>70.430293079999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4027,7 +4042,7 @@
         <v>85.966887</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4059,7 +4074,7 @@
         <v>75.0924902</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4091,7 +4106,7 @@
         <v>73.002589700000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4123,7 +4138,7 @@
         <v>89.150763990000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4155,7 +4170,7 @@
         <v>142.1793945</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4187,7 +4202,7 @@
         <v>66.587396139999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4219,7 +4234,7 @@
         <v>76.083520649999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4251,7 +4266,7 @@
         <v>70.586436750000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4283,7 +4298,7 @@
         <v>70.266747710000004</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4315,7 +4330,7 @@
         <v>157.37697840000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4347,7 +4362,7 @@
         <v>78.228321080000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4379,7 +4394,7 @@
         <v>79.246160979999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4411,7 +4426,7 @@
         <v>102.6546061</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4443,7 +4458,7 @@
         <v>74.501866340000007</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4475,7 +4490,7 @@
         <v>174.1414096</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4507,7 +4522,7 @@
         <v>77.985573290000005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4539,7 +4554,7 @@
         <v>142.68606449999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4571,7 +4586,7 @@
         <v>54.339419130000003</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4603,7 +4618,7 @@
         <v>68.24734402</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4635,7 +4650,7 @@
         <v>81.638249160000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4667,7 +4682,7 @@
         <v>77.573681829999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4699,7 +4714,7 @@
         <v>64.604965930000006</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4731,7 +4746,7 @@
         <v>102.2980225</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4763,7 +4778,7 @@
         <v>61.992439509999997</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4795,7 +4810,7 @@
         <v>89.379606719999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4827,7 +4842,7 @@
         <v>86.265133860000006</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4859,7 +4874,7 @@
         <v>77.936429259999997</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4891,7 +4906,7 @@
         <v>107.041996</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4923,7 +4938,7 @@
         <v>150.05388379999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4955,7 +4970,7 @@
         <v>74.23931193</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4987,7 +5002,7 @@
         <v>84.337954280000005</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5019,7 +5034,7 @@
         <v>114.59778</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5051,7 +5066,7 @@
         <v>70.825735570000006</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5083,7 +5098,7 @@
         <v>59.384049419999997</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5115,7 +5130,7 @@
         <v>188.30307629999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5147,7 +5162,7 @@
         <v>81.191360000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5179,7 +5194,7 @@
         <v>82.320285560000002</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5211,7 +5226,7 @@
         <v>179.0687733</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5243,7 +5258,7 @@
         <v>173.61369970000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5275,7 +5290,7 @@
         <v>66.392123220000002</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5307,7 +5322,7 @@
         <v>148.1159868</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5339,7 +5354,7 @@
         <v>152.628377</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5371,7 +5386,7 @@
         <v>84.878856900000002</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5403,7 +5418,7 @@
         <v>96.517365690000005</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5435,7 +5450,7 @@
         <v>187.7851388</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5467,7 +5482,7 @@
         <v>110.34973410000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5499,7 +5514,7 @@
         <v>71.536697860000004</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5531,7 +5546,7 @@
         <v>61.815621139999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5563,7 +5578,7 @@
         <v>54.283734559999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5595,7 +5610,7 @@
         <v>239.4724588</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5627,7 +5642,7 @@
         <v>73.17783403</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5659,7 +5674,7 @@
         <v>59.449267149999997</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5691,7 +5706,7 @@
         <v>66.696958780000003</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5723,7 +5738,7 @@
         <v>71.464577910000003</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5755,7 +5770,7 @@
         <v>76.012780669999998</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5787,7 +5802,7 @@
         <v>72.29963875</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5819,7 +5834,7 @@
         <v>125.9214568</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5851,7 +5866,7 @@
         <v>108.9529936</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5883,7 +5898,7 @@
         <v>59.644770379999997</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5915,7 +5930,7 @@
         <v>75.082717180000003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5947,7 +5962,7 @@
         <v>77.794660329999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5979,7 +5994,7 @@
         <v>155.66726299999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6011,7 +6026,7 @@
         <v>65.899986740000003</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6043,7 +6058,7 @@
         <v>262.49934480000002</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6075,7 +6090,7 @@
         <v>83.532830480000001</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6107,7 +6122,7 @@
         <v>69.653843640000005</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6139,7 +6154,7 @@
         <v>230.7312617</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6171,7 +6186,7 @@
         <v>100.9826276</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6203,7 +6218,7 @@
         <v>70.098854540000005</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6235,7 +6250,7 @@
         <v>55.61626983</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6267,7 +6282,7 @@
         <v>71.383788109999998</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6299,7 +6314,7 @@
         <v>122.65723560000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6331,7 +6346,7 @@
         <v>136.54100539999999</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6363,7 +6378,7 @@
         <v>110.7259767</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6395,7 +6410,7 @@
         <v>96.475806710000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6427,7 +6442,7 @@
         <v>100.5688787</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6459,7 +6474,7 @@
         <v>147.77715799999999</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6484,7 +6499,7 @@
         <v>120.9349678</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6509,7 +6524,7 @@
         <v>157.80646039999999</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6534,7 +6549,7 @@
         <v>68.266361000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6559,7 +6574,7 @@
         <v>90.114842890000006</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6584,7 +6599,7 @@
         <v>121.7652156</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6609,7 +6624,7 @@
         <v>90.89001322</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6634,7 +6649,7 @@
         <v>110.8839662</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6659,7 +6674,7 @@
         <v>66.613706590000007</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6684,7 +6699,7 @@
         <v>91.655627010000003</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6709,7 +6724,7 @@
         <v>64.344253300000005</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6734,7 +6749,7 @@
         <v>76.651464939999997</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6759,7 +6774,7 @@
         <v>73.135420080000003</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6784,7 +6799,7 @@
         <v>151.3804312</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6809,7 +6824,7 @@
         <v>73.701102969999994</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6834,7 +6849,7 @@
         <v>87.776578189999995</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6859,7 +6874,7 @@
         <v>167.97359370000001</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6884,7 +6899,7 @@
         <v>164.09272669999999</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6909,7 +6924,7 @@
         <v>65.22788405</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6934,7 +6949,7 @@
         <v>69.232167009999998</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6959,7 +6974,7 @@
         <v>74.22033381</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6984,7 +6999,7 @@
         <v>179.5219712</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7009,7 +7024,7 @@
         <v>153.06868979999999</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7034,7 +7049,7 @@
         <v>108.6078124</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7059,7 +7074,7 @@
         <v>80.59706783</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7084,7 +7099,7 @@
         <v>79.332350969999993</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7109,7 +7124,7 @@
         <v>81.243446590000005</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7134,7 +7149,7 @@
         <v>104.3451872</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7159,7 +7174,7 @@
         <v>63.577625040000001</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7184,7 +7199,7 @@
         <v>87.148025750000002</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7209,7 +7224,7 @@
         <v>96.42174387</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7234,7 +7249,7 @@
         <v>57.412272209999998</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7259,7 +7274,7 @@
         <v>68.044037099999997</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7284,7 +7299,7 @@
         <v>73.41914654</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7309,7 +7324,7 @@
         <v>103.6484749</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7334,7 +7349,7 @@
         <v>104.4741313</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7359,7 +7374,7 @@
         <v>69.328778029999995</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7384,7 +7399,7 @@
         <v>90.776786329999993</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7409,7 +7424,7 @@
         <v>70.672354940000005</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7434,7 +7449,7 @@
         <v>311.08338620000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7459,7 +7474,7 @@
         <v>316.31170200000003</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7484,7 +7499,7 @@
         <v>80.747659209999995</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7509,7 +7524,7 @@
         <v>230.13729359999999</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7534,7 +7549,7 @@
         <v>68.864663359999994</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7559,7 +7574,7 @@
         <v>124.89233830000001</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -7584,7 +7599,7 @@
         <v>59.644602300000003</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -7609,7 +7624,7 @@
         <v>74.457560299999997</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -7634,7 +7649,7 @@
         <v>169.77384499999999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -7659,7 +7674,7 @@
         <v>73.649567129999994</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -7684,7 +7699,7 @@
         <v>112.43325470000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -7709,7 +7724,7 @@
         <v>93.632917640000002</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7734,7 +7749,7 @@
         <v>104.4873977</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7759,7 +7774,7 @@
         <v>76.506968259999994</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7784,7 +7799,7 @@
         <v>83.550561900000005</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7809,7 +7824,7 @@
         <v>71.264290090000003</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7834,7 +7849,7 @@
         <v>64.424674749999994</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7859,7 +7874,7 @@
         <v>82.739289049999996</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7884,7 +7899,7 @@
         <v>89.848436359999994</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7909,7 +7924,7 @@
         <v>67.527660609999998</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7934,7 +7949,7 @@
         <v>70.284808159999997</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7959,7 +7974,7 @@
         <v>90.288619999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7984,7 +7999,7 @@
         <v>77.9076345</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8009,7 +8024,7 @@
         <v>95.885140899999996</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8034,7 +8049,7 @@
         <v>62.910363199999999</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8059,7 +8074,7 @@
         <v>65.665094850000003</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -8084,7 +8099,7 @@
         <v>112.04497120000001</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -8109,7 +8124,7 @@
         <v>76.899317740000001</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -8134,7 +8149,7 @@
         <v>64.096451520000002</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -8159,7 +8174,7 @@
         <v>53.532679080000001</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -8184,7 +8199,7 @@
         <v>105.3823471</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -8209,7 +8224,7 @@
         <v>114.6297505</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -8234,7 +8249,7 @@
         <v>70.629759309999997</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -8259,7 +8274,7 @@
         <v>111.9508805</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -8284,7 +8299,7 @@
         <v>77.367700099999993</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -8309,7 +8324,7 @@
         <v>69.773752689999995</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -8334,7 +8349,7 @@
         <v>85.220766780000005</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -8359,7 +8374,7 @@
         <v>103.963748</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -8384,7 +8399,7 @@
         <v>69.104651689999997</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -8409,7 +8424,7 @@
         <v>79.564752100000007</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -8434,7 +8449,7 @@
         <v>170.4539824</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -8459,7 +8474,7 @@
         <v>65.162873739999995</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -8484,7 +8499,7 @@
         <v>77.021425010000002</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -8509,7 +8524,7 @@
         <v>79.301221850000005</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -8534,7 +8549,7 @@
         <v>69.73512101</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -8559,7 +8574,7 @@
         <v>63.994801520000003</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -8584,7 +8599,7 @@
         <v>76.141092779999994</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -8609,7 +8624,7 @@
         <v>97.390361310000003</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8634,7 +8649,7 @@
         <v>75.403293610000006</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -8659,7 +8674,7 @@
         <v>97.594334599999996</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -8684,7 +8699,7 @@
         <v>87.565813300000002</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8709,7 +8724,7 @@
         <v>89.744354250000001</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8734,7 +8749,7 @@
         <v>71.721083879999995</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8759,7 +8774,7 @@
         <v>75.800104379999993</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8784,7 +8799,7 @@
         <v>76.601208209999996</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8809,7 +8824,7 @@
         <v>75.869349240000005</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8834,7 +8849,7 @@
         <v>266.8695333</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8859,7 +8874,7 @@
         <v>68.209827899999993</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -8884,7 +8899,7 @@
         <v>136.49682999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -8909,7 +8924,7 @@
         <v>68.67235565</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -8934,7 +8949,7 @@
         <v>79.118805890000004</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -8959,7 +8974,7 @@
         <v>77.576202390000006</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -8984,7 +8999,7 @@
         <v>173.84046169999999</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -9009,7 +9024,7 @@
         <v>301.4719207</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -9034,7 +9049,7 @@
         <v>79.568520309999997</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -9059,7 +9074,7 @@
         <v>69.960621119999999</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -9084,7 +9099,7 @@
         <v>90.21592665</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -9109,7 +9124,7 @@
         <v>61.174045560000003</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -9134,7 +9149,7 @@
         <v>87.557098150000002</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -9159,7 +9174,7 @@
         <v>101.0144756</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -9184,7 +9199,7 @@
         <v>110.0529714</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -9209,7 +9224,7 @@
         <v>76.526471849999993</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -9234,7 +9249,7 @@
         <v>71.688502790000001</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -9259,7 +9274,7 @@
         <v>83.794479370000005</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -9284,7 +9299,7 @@
         <v>73.040626529999997</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -9309,7 +9324,7 @@
         <v>64.66984558</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>200</v>
       </c>
@@ -9334,7 +9349,7 @@
         <v>72.91574335</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>201</v>
       </c>
@@ -9359,7 +9374,7 @@
         <v>156.7033045</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>202</v>
       </c>
@@ -9384,7 +9399,7 @@
         <v>171.3221126</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>203</v>
       </c>
@@ -9409,7 +9424,7 @@
         <v>141.32074789999999</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>204</v>
       </c>
@@ -9434,7 +9449,7 @@
         <v>66.435075999999995</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>205</v>
       </c>
@@ -9459,7 +9474,7 @@
         <v>71.215897319999996</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>206</v>
       </c>
@@ -9484,7 +9499,7 @@
         <v>71.775421859999994</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>207</v>
       </c>
@@ -9509,7 +9524,7 @@
         <v>129.22393579999999</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>208</v>
       </c>
@@ -9534,7 +9549,7 @@
         <v>69.827827690000007</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>209</v>
       </c>
@@ -9559,7 +9574,7 @@
         <v>132.3101881</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>210</v>
       </c>
@@ -9584,7 +9599,7 @@
         <v>75.072875019999998</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>211</v>
       </c>
@@ -9609,7 +9624,7 @@
         <v>67.793764830000001</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>212</v>
       </c>
@@ -9634,7 +9649,7 @@
         <v>82.769340990000003</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>213</v>
       </c>
@@ -9659,7 +9674,7 @@
         <v>63.4780643</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>214</v>
       </c>
@@ -9684,7 +9699,7 @@
         <v>159.09773989999999</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>215</v>
       </c>
@@ -9709,7 +9724,7 @@
         <v>75.848449709999997</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>216</v>
       </c>
@@ -9734,7 +9749,7 @@
         <v>58.511027339999998</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>217</v>
       </c>
@@ -9759,7 +9774,7 @@
         <v>64.681175469999999</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>218</v>
       </c>
@@ -9784,7 +9799,7 @@
         <v>64.515140529999996</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>219</v>
       </c>
@@ -9809,7 +9824,7 @@
         <v>105.6798069</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>220</v>
       </c>
@@ -9834,7 +9849,7 @@
         <v>106.12599539999999</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>221</v>
       </c>
@@ -9859,7 +9874,7 @@
         <v>60.447096109999997</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>222</v>
       </c>
@@ -9884,7 +9899,7 @@
         <v>131.18682050000001</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>223</v>
       </c>
@@ -9909,7 +9924,7 @@
         <v>65.937148089999994</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>224</v>
       </c>
@@ -9934,7 +9949,7 @@
         <v>101.9233818</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>225</v>
       </c>
@@ -9959,7 +9974,7 @@
         <v>86.02551484</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>226</v>
       </c>
@@ -9984,7 +9999,7 @@
         <v>131.93420169999999</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>227</v>
       </c>
@@ -10009,7 +10024,7 @@
         <v>102.0728259</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>228</v>
       </c>
@@ -10034,7 +10049,7 @@
         <v>94.534187790000004</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>229</v>
       </c>
@@ -10059,7 +10074,7 @@
         <v>96.069827799999999</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>230</v>
       </c>
@@ -10084,7 +10099,7 @@
         <v>103.87917109999999</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>231</v>
       </c>
@@ -10109,7 +10124,7 @@
         <v>75.918666599999995</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>232</v>
       </c>
@@ -10134,7 +10149,7 @@
         <v>117.3570914</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>233</v>
       </c>
@@ -10159,7 +10174,7 @@
         <v>76.232002969999996</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>234</v>
       </c>
@@ -10184,7 +10199,7 @@
         <v>70.672926189999998</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>235</v>
       </c>
@@ -10209,7 +10224,7 @@
         <v>67.345498800000001</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>236</v>
       </c>
@@ -10234,7 +10249,7 @@
         <v>114.05532770000001</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>237</v>
       </c>
@@ -10259,7 +10274,7 @@
         <v>126.2378669</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>238</v>
       </c>
@@ -10284,7 +10299,7 @@
         <v>103.56668569999999</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>239</v>
       </c>
@@ -10309,7 +10324,7 @@
         <v>131.25152370000001</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>240</v>
       </c>
@@ -10334,7 +10349,7 @@
         <v>103.0897274</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>241</v>
       </c>
@@ -10359,7 +10374,7 @@
         <v>161.10033060000001</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>242</v>
       </c>
@@ -10384,7 +10399,7 @@
         <v>77.190468789999997</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>243</v>
       </c>
@@ -10409,7 +10424,7 @@
         <v>107.0003722</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>244</v>
       </c>
@@ -10434,7 +10449,7 @@
         <v>153.2006896</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>245</v>
       </c>
@@ -10459,7 +10474,7 @@
         <v>259.07707449999998</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>246</v>
       </c>
@@ -10484,7 +10499,7 @@
         <v>126.0645461</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>247</v>
       </c>
@@ -10509,7 +10524,7 @@
         <v>174.4564953</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>248</v>
       </c>
@@ -10534,7 +10549,7 @@
         <v>116.6355653</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>249</v>
       </c>
@@ -10559,7 +10574,7 @@
         <v>73.120040660000001</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>250</v>
       </c>
@@ -10584,7 +10599,7 @@
         <v>70.425336119999997</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>251</v>
       </c>
@@ -10609,7 +10624,7 @@
         <v>63.300063850000001</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>252</v>
       </c>
@@ -10634,7 +10649,7 @@
         <v>60.147070880000001</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>253</v>
       </c>
@@ -10659,7 +10674,7 @@
         <v>66.313930510000006</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>254</v>
       </c>
@@ -10684,7 +10699,7 @@
         <v>242.5189168</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>255</v>
       </c>
@@ -10709,7 +10724,7 @@
         <v>73.073469160000002</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>256</v>
       </c>
@@ -10734,7 +10749,7 @@
         <v>71.646962639999998</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>257</v>
       </c>
@@ -10759,7 +10774,7 @@
         <v>99.234034780000002</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>258</v>
       </c>
@@ -10784,7 +10799,7 @@
         <v>66.452945229999997</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>259</v>
       </c>
@@ -10809,7 +10824,7 @@
         <v>109.71758749999999</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>260</v>
       </c>
@@ -10834,7 +10849,7 @@
         <v>164.7396483</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>261</v>
       </c>
@@ -10859,7 +10874,7 @@
         <v>67.647661209999995</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>262</v>
       </c>
@@ -10884,7 +10899,7 @@
         <v>94.852701429999996</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>263</v>
       </c>
@@ -10909,7 +10924,7 @@
         <v>92.238562110000004</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>264</v>
       </c>
@@ -10934,7 +10949,7 @@
         <v>60.907771349999997</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>265</v>
       </c>
@@ -10959,7 +10974,7 @@
         <v>73.985320810000005</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>266</v>
       </c>
@@ -10984,7 +10999,7 @@
         <v>85.355964900000004</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>267</v>
       </c>
@@ -11009,7 +11024,7 @@
         <v>73.845289230000006</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>268</v>
       </c>
@@ -11034,7 +11049,7 @@
         <v>156.25952599999999</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>269</v>
       </c>
@@ -11059,7 +11074,7 @@
         <v>83.201294899999994</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>270</v>
       </c>
@@ -11084,7 +11099,7 @@
         <v>62.790936709999997</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>271</v>
       </c>
@@ -11109,7 +11124,7 @@
         <v>76.234371190000005</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>272</v>
       </c>
@@ -11134,7 +11149,7 @@
         <v>68.899666789999998</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>273</v>
       </c>
@@ -11159,7 +11174,7 @@
         <v>82.843558549999997</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>274</v>
       </c>
@@ -11184,7 +11199,7 @@
         <v>144.93537000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>275</v>
       </c>
@@ -11209,7 +11224,7 @@
         <v>72.078719140000004</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>276</v>
       </c>
@@ -11234,7 +11249,7 @@
         <v>63.407739640000003</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>277</v>
       </c>
@@ -11259,7 +11274,7 @@
         <v>72.425441500000005</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>278</v>
       </c>
@@ -11284,7 +11299,7 @@
         <v>67.40973425</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>279</v>
       </c>
@@ -11309,7 +11324,7 @@
         <v>61.105925319999997</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>280</v>
       </c>
@@ -11334,7 +11349,7 @@
         <v>89.029763459999998</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>281</v>
       </c>
@@ -11359,7 +11374,7 @@
         <v>166.5789073</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>282</v>
       </c>
@@ -11384,7 +11399,7 @@
         <v>103.5003881</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>283</v>
       </c>
@@ -11409,7 +11424,7 @@
         <v>96.808005809999997</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>284</v>
       </c>
@@ -11434,7 +11449,7 @@
         <v>82.153857709999997</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>285</v>
       </c>
@@ -11459,7 +11474,7 @@
         <v>93.559077500000001</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>286</v>
       </c>
@@ -11484,7 +11499,7 @@
         <v>131.60863639999999</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>287</v>
       </c>
@@ -11509,7 +11524,7 @@
         <v>79.645013809999995</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>288</v>
       </c>
@@ -11534,7 +11549,7 @@
         <v>76.513705250000001</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>289</v>
       </c>
@@ -11559,7 +11574,7 @@
         <v>118.0548534</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>290</v>
       </c>
@@ -11584,7 +11599,7 @@
         <v>90.709365129999995</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>291</v>
       </c>
@@ -11609,7 +11624,7 @@
         <v>80.770131109999994</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>292</v>
       </c>
@@ -11634,7 +11649,7 @@
         <v>127.9043341</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>293</v>
       </c>
@@ -11659,7 +11674,7 @@
         <v>72.779586789999996</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>294</v>
       </c>
@@ -11684,7 +11699,7 @@
         <v>241.1195381</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>295</v>
       </c>
@@ -11709,7 +11724,7 @@
         <v>89.041920899999994</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>296</v>
       </c>
@@ -11734,7 +11749,7 @@
         <v>89.939008240000007</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>297</v>
       </c>
@@ -11759,7 +11774,7 @@
         <v>89.336696860000004</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>298</v>
       </c>
@@ -11784,7 +11799,7 @@
         <v>165.80999850000001</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>299</v>
       </c>
@@ -11809,7 +11824,7 @@
         <v>187.27880669999999</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>300</v>
       </c>
@@ -11834,7 +11849,7 @@
         <v>97.044007780000001</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>301</v>
       </c>
@@ -11859,7 +11874,7 @@
         <v>83.574259040000001</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>302</v>
       </c>
@@ -11884,7 +11899,7 @@
         <v>94.3365984</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>303</v>
       </c>
@@ -11909,7 +11924,7 @@
         <v>118.3879821</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>304</v>
       </c>
@@ -11934,7 +11949,7 @@
         <v>88.162899019999998</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>305</v>
       </c>
@@ -11959,7 +11974,7 @@
         <v>88.69702959</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>306</v>
       </c>
@@ -11984,7 +11999,7 @@
         <v>68.850600240000006</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>307</v>
       </c>
@@ -12009,7 +12024,7 @@
         <v>73.843405489999995</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>308</v>
       </c>
@@ -12034,7 +12049,7 @@
         <v>76.300268650000007</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>309</v>
       </c>
@@ -12059,7 +12074,7 @@
         <v>64.560483930000004</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>310</v>
       </c>
@@ -12084,7 +12099,7 @@
         <v>93.813053370000006</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>311</v>
       </c>
@@ -12109,7 +12124,7 @@
         <v>97.793994670000004</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>312</v>
       </c>
@@ -12134,7 +12149,7 @@
         <v>87.705493450000006</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>313</v>
       </c>
@@ -12159,7 +12174,7 @@
         <v>91.208493950000005</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>314</v>
       </c>
@@ -12184,7 +12199,7 @@
         <v>166.56707170000001</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>315</v>
       </c>
@@ -12209,7 +12224,7 @@
         <v>132.22167970000001</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>316</v>
       </c>
@@ -12234,7 +12249,7 @@
         <v>73.821429969999997</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>317</v>
       </c>
@@ -12259,7 +12274,7 @@
         <v>98.420559639999993</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>318</v>
       </c>
@@ -12284,7 +12299,7 @@
         <v>168.93103619999999</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>319</v>
       </c>
@@ -12309,7 +12324,7 @@
         <v>108.8919418</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>320</v>
       </c>
@@ -12334,7 +12349,7 @@
         <v>77.299880979999998</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>321</v>
       </c>
@@ -12359,7 +12374,7 @@
         <v>132.0887663</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>322</v>
       </c>
@@ -12384,7 +12399,7 @@
         <v>132.44233890000001</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>323</v>
       </c>
@@ -12409,7 +12424,7 @@
         <v>157.14405110000001</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>324</v>
       </c>
@@ -12434,7 +12449,7 @@
         <v>89.154076810000007</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>325</v>
       </c>
@@ -12459,7 +12474,7 @@
         <v>81.132991309999994</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>326</v>
       </c>
@@ -12484,7 +12499,7 @@
         <v>69.250824690000002</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>327</v>
       </c>
@@ -12509,7 +12524,7 @@
         <v>180.10939619999999</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>328</v>
       </c>
@@ -12534,7 +12549,7 @@
         <v>82.698726890000003</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>329</v>
       </c>
@@ -12559,7 +12574,7 @@
         <v>159.643461</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>330</v>
       </c>
@@ -12584,7 +12599,7 @@
         <v>75.645837069999999</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>331</v>
       </c>
@@ -12609,7 +12624,7 @@
         <v>100.98031829999999</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>332</v>
       </c>
@@ -12634,7 +12649,7 @@
         <v>124.28451509999999</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>333</v>
       </c>
@@ -12659,7 +12674,7 @@
         <v>86.432625529999996</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>334</v>
       </c>
@@ -12684,7 +12699,7 @@
         <v>69.701561929999997</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>335</v>
       </c>
@@ -12709,7 +12724,7 @@
         <v>67.032321449999998</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>336</v>
       </c>
@@ -12734,7 +12749,7 @@
         <v>91.129544019999997</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>337</v>
       </c>
@@ -12759,7 +12774,7 @@
         <v>58.622998000000003</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>338</v>
       </c>
@@ -12784,7 +12799,7 @@
         <v>79.067757130000004</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>339</v>
       </c>
@@ -12809,7 +12824,7 @@
         <v>83.615729810000005</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>340</v>
       </c>
@@ -12834,7 +12849,7 @@
         <v>65.735688690000003</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>341</v>
       </c>
@@ -12859,7 +12874,7 @@
         <v>160.207154</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>342</v>
       </c>
@@ -12884,7 +12899,7 @@
         <v>160.11570449999999</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>343</v>
       </c>
@@ -12909,7 +12924,7 @@
         <v>94.243693109999995</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>344</v>
       </c>
@@ -12934,7 +12949,7 @@
         <v>79.079905510000003</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>345</v>
       </c>
@@ -12959,7 +12974,7 @@
         <v>59.063067439999998</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>346</v>
       </c>
@@ -12984,7 +12999,7 @@
         <v>79.950078250000004</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>347</v>
       </c>
@@ -13009,7 +13024,7 @@
         <v>74.379331350000001</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>348</v>
       </c>
@@ -13034,7 +13049,7 @@
         <v>140.1478865</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>349</v>
       </c>
@@ -13059,7 +13074,7 @@
         <v>100.09612060000001</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>350</v>
       </c>
@@ -13084,7 +13099,7 @@
         <v>67.989423040000005</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>351</v>
       </c>
@@ -13109,7 +13124,7 @@
         <v>70.154864309999994</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>352</v>
       </c>
@@ -13134,7 +13149,7 @@
         <v>77.561746600000006</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>353</v>
       </c>
@@ -13159,7 +13174,7 @@
         <v>102.7883422</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>354</v>
       </c>
@@ -13184,7 +13199,7 @@
         <v>74.069785589999995</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>355</v>
       </c>
@@ -13209,7 +13224,7 @@
         <v>72.066306589999996</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>356</v>
       </c>
@@ -13234,7 +13249,7 @@
         <v>182.38390870000001</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>357</v>
       </c>
@@ -13259,7 +13274,7 @@
         <v>79.65283823</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>358</v>
       </c>
@@ -13284,7 +13299,7 @@
         <v>90.123529430000005</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>359</v>
       </c>
@@ -13309,7 +13324,7 @@
         <v>79.310679910000005</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>360</v>
       </c>
@@ -13334,7 +13349,7 @@
         <v>65.906962629999995</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>361</v>
       </c>
@@ -13359,7 +13374,7 @@
         <v>69.945290330000006</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>362</v>
       </c>
@@ -13384,7 +13399,7 @@
         <v>65.385186669999996</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>363</v>
       </c>
@@ -13409,7 +13424,7 @@
         <v>82.973704339999998</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>364</v>
       </c>
@@ -13434,7 +13449,7 @@
         <v>73.207291839999996</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>365</v>
       </c>
@@ -13459,7 +13474,7 @@
         <v>81.443268779999997</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>366</v>
       </c>
@@ -13484,7 +13499,7 @@
         <v>69.499044900000001</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>367</v>
       </c>
@@ -13509,7 +13524,7 @@
         <v>90.229353189999998</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>368</v>
       </c>
@@ -13534,7 +13549,7 @@
         <v>86.512214659999998</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>369</v>
       </c>
@@ -13559,7 +13574,7 @@
         <v>57.113623619999998</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>370</v>
       </c>
@@ -13584,7 +13599,7 @@
         <v>77.749741080000007</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>371</v>
       </c>
@@ -13609,7 +13624,7 @@
         <v>74.146279809999996</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>372</v>
       </c>
@@ -13634,7 +13649,7 @@
         <v>74.496200079999994</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>373</v>
       </c>
@@ -13659,7 +13674,7 @@
         <v>70.857269529999996</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>374</v>
       </c>
@@ -13684,7 +13699,7 @@
         <v>131.93153169999999</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>375</v>
       </c>
@@ -13709,7 +13724,7 @@
         <v>74.68283486</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>376</v>
       </c>
@@ -13734,7 +13749,7 @@
         <v>83.163500549999995</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>377</v>
       </c>
@@ -13759,7 +13774,7 @@
         <v>251.49139640000001</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>378</v>
       </c>
@@ -13784,7 +13799,7 @@
         <v>163.9302988</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>379</v>
       </c>
@@ -13809,7 +13824,7 @@
         <v>181.51391599999999</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>380</v>
       </c>
@@ -13834,7 +13849,7 @@
         <v>122.7711611</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>381</v>
       </c>
@@ -13859,7 +13874,7 @@
         <v>107.3981564</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>382</v>
       </c>
@@ -13884,7 +13899,7 @@
         <v>148.1824081</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>383</v>
       </c>
@@ -13909,7 +13924,7 @@
         <v>88.335615630000007</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>384</v>
       </c>
@@ -13934,7 +13949,7 @@
         <v>123.65616350000001</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>385</v>
       </c>
@@ -13959,7 +13974,7 @@
         <v>117.6946607</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>386</v>
       </c>
@@ -13984,7 +13999,7 @@
         <v>288.15251160000003</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>387</v>
       </c>
@@ -14009,7 +14024,7 @@
         <v>134.37561009999999</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>388</v>
       </c>
@@ -14034,7 +14049,7 @@
         <v>137.35886170000001</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>389</v>
       </c>
@@ -14059,7 +14074,7 @@
         <v>339.13693069999999</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>390</v>
       </c>
@@ -14084,7 +14099,7 @@
         <v>132.60554149999999</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>391</v>
       </c>
@@ -14109,7 +14124,7 @@
         <v>111.4109674</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>392</v>
       </c>
@@ -14134,7 +14149,7 @@
         <v>164.94868299999999</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>393</v>
       </c>
@@ -14159,7 +14174,7 @@
         <v>101.57202580000001</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>394</v>
       </c>
@@ -14184,7 +14199,7 @@
         <v>170.4146369</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>395</v>
       </c>
@@ -14209,7 +14224,7 @@
         <v>139.41823429999999</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>396</v>
       </c>
@@ -14234,7 +14249,7 @@
         <v>126.55946640000001</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>397</v>
       </c>
@@ -14259,7 +14274,7 @@
         <v>272.60933879999999</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>398</v>
       </c>
@@ -14284,7 +14299,7 @@
         <v>95.039371009999996</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>399</v>
       </c>
@@ -14309,7 +14324,7 @@
         <v>206.50106289999999</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>400</v>
       </c>
@@ -14334,7 +14349,7 @@
         <v>77.223051549999994</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>401</v>
       </c>
@@ -14359,7 +14374,7 @@
         <v>75.797941449999996</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>402</v>
       </c>
@@ -14384,7 +14399,7 @@
         <v>164.98115989999999</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>403</v>
       </c>
@@ -14409,7 +14424,7 @@
         <v>104.1688297</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>404</v>
       </c>
@@ -14434,7 +14449,7 @@
         <v>99.383514880000007</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>405</v>
       </c>
@@ -14459,7 +14474,7 @@
         <v>106.4146631</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>406</v>
       </c>
@@ -14484,7 +14499,7 @@
         <v>72.837614060000007</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>407</v>
       </c>
@@ -14509,7 +14524,7 @@
         <v>82.30085278</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>408</v>
       </c>
@@ -14534,7 +14549,7 @@
         <v>97.829287050000005</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>409</v>
       </c>
@@ -14559,7 +14574,7 @@
         <v>159.92625620000001</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>410</v>
       </c>
@@ -14584,7 +14599,7 @@
         <v>77.969476459999996</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>411</v>
       </c>
@@ -14609,7 +14624,7 @@
         <v>178.04396059999999</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>412</v>
       </c>
@@ -14634,7 +14649,7 @@
         <v>94.871280909999996</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>413</v>
       </c>
@@ -14659,7 +14674,7 @@
         <v>77.925709960000006</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>414</v>
       </c>
@@ -14684,7 +14699,7 @@
         <v>128.0606301</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>415</v>
       </c>
@@ -14709,7 +14724,7 @@
         <v>72.657154320000004</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>416</v>
       </c>
@@ -14734,7 +14749,7 @@
         <v>80.642846579999997</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>417</v>
       </c>
@@ -14759,7 +14774,7 @@
         <v>99.435682299999996</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>418</v>
       </c>
@@ -14784,7 +14799,7 @@
         <v>70.857853649999996</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>419</v>
       </c>
@@ -14809,7 +14824,7 @@
         <v>82.878875019999995</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>420</v>
       </c>
@@ -14834,7 +14849,7 @@
         <v>70.008770229999996</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>421</v>
       </c>
@@ -14859,7 +14874,7 @@
         <v>70.548807859999997</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>422</v>
       </c>
@@ -14884,7 +14899,7 @@
         <v>99.560953620000006</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>423</v>
       </c>
@@ -14909,7 +14924,7 @@
         <v>72.841882470000002</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>424</v>
       </c>
@@ -14934,7 +14949,7 @@
         <v>75.089366200000001</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>425</v>
       </c>
@@ -14959,7 +14974,7 @@
         <v>67.052837850000003</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>426</v>
       </c>
@@ -14984,7 +14999,7 @@
         <v>103.7933853</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>427</v>
       </c>
@@ -15009,7 +15024,7 @@
         <v>61.789994479999997</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>428</v>
       </c>
@@ -15034,7 +15049,7 @@
         <v>85.924728869999996</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>429</v>
       </c>
@@ -15059,7 +15074,7 @@
         <v>70.301527019999995</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>430</v>
       </c>
@@ -15084,7 +15099,7 @@
         <v>71.39780021</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>431</v>
       </c>
@@ -15109,7 +15124,7 @@
         <v>237.24590950000001</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>432</v>
       </c>
@@ -15134,7 +15149,7 @@
         <v>152.67893960000001</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>433</v>
       </c>
@@ -15159,7 +15174,7 @@
         <v>89.014843940000006</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>434</v>
       </c>
@@ -15184,7 +15199,7 @@
         <v>183.1056428</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>435</v>
       </c>
@@ -15209,7 +15224,7 @@
         <v>75.811117890000006</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>436</v>
       </c>
@@ -15234,7 +15249,7 @@
         <v>171.58890030000001</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>437</v>
       </c>
@@ -15259,7 +15274,7 @@
         <v>157.8104725</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>438</v>
       </c>
@@ -15284,7 +15299,7 @@
         <v>147.3580599</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>439</v>
       </c>
@@ -15309,7 +15324,7 @@
         <v>102.5934062</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>440</v>
       </c>
@@ -15334,7 +15349,7 @@
         <v>95.430894370000004</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>441</v>
       </c>
@@ -15359,7 +15374,7 @@
         <v>77.585891720000006</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>442</v>
       </c>
@@ -15384,7 +15399,7 @@
         <v>115.64763019999999</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>443</v>
       </c>
@@ -15409,7 +15424,7 @@
         <v>98.56560254</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>444</v>
       </c>
@@ -15434,7 +15449,7 @@
         <v>122.48904709999999</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>445</v>
       </c>
@@ -15459,7 +15474,7 @@
         <v>103.13740319999999</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>446</v>
       </c>
@@ -15484,7 +15499,7 @@
         <v>99.086315159999998</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>447</v>
       </c>
@@ -15509,7 +15524,7 @@
         <v>170.1626043</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>448</v>
       </c>
@@ -15534,7 +15549,7 @@
         <v>173.64580230000001</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>449</v>
       </c>
@@ -15559,7 +15574,7 @@
         <v>218.81650160000001</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>450</v>
       </c>
@@ -15584,7 +15599,7 @@
         <v>83.162477490000001</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>451</v>
       </c>
@@ -15609,7 +15624,7 @@
         <v>254.8444269</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>452</v>
       </c>
@@ -15634,7 +15649,7 @@
         <v>156.05828020000001</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>453</v>
       </c>
@@ -15659,7 +15674,7 @@
         <v>86.928877119999996</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>454</v>
       </c>
@@ -15684,7 +15699,7 @@
         <v>77.753606559999994</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>455</v>
       </c>
@@ -15709,7 +15724,7 @@
         <v>103.3471224</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>456</v>
       </c>
@@ -15734,7 +15749,7 @@
         <v>133.3251879</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>457</v>
       </c>
@@ -15759,7 +15774,7 @@
         <v>79.139714479999995</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>458</v>
       </c>
@@ -15784,7 +15799,7 @@
         <v>66.689598559999993</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>459</v>
       </c>
@@ -15809,7 +15824,7 @@
         <v>149.88577720000001</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>460</v>
       </c>
@@ -15834,7 +15849,7 @@
         <v>78.273105139999998</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>461</v>
       </c>
@@ -15859,7 +15874,7 @@
         <v>119.7045636</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>462</v>
       </c>
@@ -15884,7 +15899,7 @@
         <v>75.893702270000006</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>463</v>
       </c>
@@ -15909,7 +15924,7 @@
         <v>117.29234580000001</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>464</v>
       </c>
@@ -15934,7 +15949,7 @@
         <v>237.32700439999999</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>465</v>
       </c>
@@ -15959,7 +15974,7 @@
         <v>119.34564159999999</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>466</v>
       </c>
@@ -15984,7 +15999,7 @@
         <v>142.85072400000001</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>467</v>
       </c>
@@ -16009,7 +16024,7 @@
         <v>128.8934553</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>468</v>
       </c>
@@ -16034,7 +16049,7 @@
         <v>153.44390490000001</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>469</v>
       </c>
@@ -16059,7 +16074,7 @@
         <v>72.334679840000007</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>470</v>
       </c>
@@ -16084,7 +16099,7 @@
         <v>78.814962629999997</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>471</v>
       </c>
@@ -16109,7 +16124,7 @@
         <v>75.905264380000006</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>472</v>
       </c>
@@ -16134,7 +16149,7 @@
         <v>166.88095379999999</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>473</v>
       </c>
@@ -16159,7 +16174,7 @@
         <v>140.82030560000001</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>474</v>
       </c>
@@ -16184,7 +16199,7 @@
         <v>80.368496179999994</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>475</v>
       </c>
@@ -16209,7 +16224,7 @@
         <v>107.48273349999999</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>476</v>
       </c>
@@ -16234,7 +16249,7 @@
         <v>75.650786879999998</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>477</v>
       </c>
@@ -16259,7 +16274,7 @@
         <v>79.94235802</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>478</v>
       </c>
@@ -16284,7 +16299,7 @@
         <v>142.81042890000001</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>479</v>
       </c>
@@ -16309,7 +16324,7 @@
         <v>93.117183920000002</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>480</v>
       </c>
@@ -16334,7 +16349,7 @@
         <v>141.95186469999999</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>481</v>
       </c>
@@ -16359,7 +16374,7 @@
         <v>60.733463999999998</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>482</v>
       </c>
@@ -16384,7 +16399,7 @@
         <v>105.5529392</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>483</v>
       </c>
@@ -16409,7 +16424,7 @@
         <v>106.3000724</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>484</v>
       </c>
@@ -16434,7 +16449,7 @@
         <v>506.75587439999998</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>485</v>
       </c>
@@ -16459,7 +16474,7 @@
         <v>79.131922009999997</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>486</v>
       </c>
@@ -16484,7 +16499,7 @@
         <v>63.94918895</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>487</v>
       </c>
@@ -16509,7 +16524,7 @@
         <v>126.0737147</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>488</v>
       </c>
@@ -16534,7 +16549,7 @@
         <v>195.81354780000001</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>489</v>
       </c>
@@ -16559,7 +16574,7 @@
         <v>58.355867150000002</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>490</v>
       </c>
@@ -16584,7 +16599,7 @@
         <v>58.650154110000003</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>491</v>
       </c>
@@ -16609,7 +16624,7 @@
         <v>56.426765439999997</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>492</v>
       </c>
@@ -16634,7 +16649,7 @@
         <v>154.61545659999999</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>493</v>
       </c>
@@ -16659,7 +16674,7 @@
         <v>151.22804640000001</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>494</v>
       </c>
@@ -16684,7 +16699,7 @@
         <v>138.61634900000001</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>495</v>
       </c>
@@ -16709,7 +16724,7 @@
         <v>73.632368330000006</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>496</v>
       </c>
@@ -16734,7 +16749,7 @@
         <v>74.139576439999999</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>497</v>
       </c>
@@ -16759,7 +16774,7 @@
         <v>85.058269260000003</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>498</v>
       </c>
@@ -16784,7 +16799,7 @@
         <v>571.06438800000001</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>499</v>
       </c>
